--- a/raw_data/20200818_saline/20200818_Sensor0_Test_62.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_62.xlsx
@@ -1,598 +1,1014 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE85B7B-BDC7-4390-AFAA-67A2D2ED64C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>54902.891507</v>
       </c>
       <c r="B2" s="1">
-        <v>15.250803</v>
+        <v>15.250802999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>904.289000</v>
+        <v>904.28899999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-192.656000</v>
+        <v>-192.65600000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>54913.310967</v>
+        <v>54913.310966999998</v>
       </c>
       <c r="G2" s="1">
-        <v>15.253697</v>
+        <v>15.253697000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>920.687000</v>
+        <v>920.68700000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-163.413000</v>
+        <v>-163.41300000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>54923.798377</v>
+        <v>54923.798376999999</v>
       </c>
       <c r="L2" s="1">
-        <v>15.256611</v>
+        <v>15.256610999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>942.250000</v>
+        <v>942.25</v>
       </c>
       <c r="N2" s="1">
-        <v>-117.730000</v>
+        <v>-117.73</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>54934.634009</v>
+        <v>54934.634009000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>15.259621</v>
+        <v>15.259620999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>948.759000</v>
+        <v>948.75900000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.683000</v>
+        <v>-102.68300000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>54945.200747</v>
+        <v>54945.200747000003</v>
       </c>
       <c r="V2" s="1">
         <v>15.262556</v>
       </c>
       <c r="W2" s="1">
-        <v>955.196000</v>
+        <v>955.19600000000003</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.281400</v>
+        <v>-89.281400000000005</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>54955.367743</v>
+        <v>54955.367743000003</v>
       </c>
       <c r="AA2" s="1">
-        <v>15.265380</v>
+        <v>15.26538</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.353000</v>
+        <v>962.35299999999995</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.119600</v>
+        <v>-80.119600000000005</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>54965.650054</v>
+        <v>54965.650053999998</v>
       </c>
       <c r="AF2" s="1">
         <v>15.268236</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.414000</v>
+        <v>967.41399999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.831700</v>
+        <v>-79.831699999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>54975.738943</v>
+        <v>54975.738942999997</v>
       </c>
       <c r="AK2" s="1">
         <v>15.271039</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.386000</v>
+        <v>975.38599999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.838800</v>
+        <v>-87.838800000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>54986.335498</v>
@@ -601,255 +1017,255 @@
         <v>15.273982</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.643000</v>
+        <v>984.64300000000003</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.963000</v>
+        <v>-102.96299999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>54996.969719</v>
+        <v>54996.969719000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>15.276936</v>
+        <v>15.276935999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.200000</v>
+        <v>996.2</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.692000</v>
+        <v>-124.69199999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>55008.004680</v>
+        <v>55008.004679999998</v>
       </c>
       <c r="AZ2" s="1">
         <v>15.280001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.960000</v>
+        <v>1005.96</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.550000</v>
+        <v>-143.55000000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>55018.951386</v>
+        <v>55018.951386000001</v>
       </c>
       <c r="BE2" s="1">
         <v>15.283042</v>
       </c>
       <c r="BF2" s="1">
-        <v>1051.910000</v>
+        <v>1051.9100000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.479000</v>
+        <v>-228.47900000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>55029.617356</v>
+        <v>55029.617356000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>15.286005</v>
+        <v>15.286004999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.020000</v>
+        <v>1132.02</v>
       </c>
       <c r="BL2" s="1">
-        <v>-364.125000</v>
+        <v>-364.125</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>55040.304159</v>
+        <v>55040.304158999999</v>
       </c>
       <c r="BO2" s="1">
         <v>15.288973</v>
       </c>
       <c r="BP2" s="1">
-        <v>1263.820000</v>
+        <v>1263.82</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-573.429000</v>
+        <v>-573.42899999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>55051.016283</v>
+        <v>55051.016282999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>15.291949</v>
+        <v>15.291949000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1411.300000</v>
+        <v>1411.3</v>
       </c>
       <c r="BV2" s="1">
-        <v>-797.281000</v>
+        <v>-797.28099999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>55061.626706</v>
+        <v>55061.626706000003</v>
       </c>
       <c r="BY2" s="1">
         <v>15.294896</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1573.380000</v>
+        <v>1573.38</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1030.030000</v>
+        <v>-1030.03</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>55072.678035</v>
+        <v>55072.678034999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>15.297966</v>
+        <v>15.297966000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1982.190000</v>
+        <v>1982.19</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1573.250000</v>
+        <v>-1573.25</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>54903.293764</v>
+        <v>54903.293764000002</v>
       </c>
       <c r="B3" s="1">
-        <v>15.250915</v>
+        <v>15.250915000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>904.245000</v>
+        <v>904.245</v>
       </c>
       <c r="D3" s="1">
-        <v>-192.424000</v>
+        <v>-192.42400000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>54913.678998</v>
+        <v>54913.678998000003</v>
       </c>
       <c r="G3" s="1">
-        <v>15.253800</v>
+        <v>15.2538</v>
       </c>
       <c r="H3" s="1">
-        <v>920.419000</v>
+        <v>920.41899999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-163.476000</v>
+        <v>-163.476</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>54924.488807</v>
+        <v>54924.488807000002</v>
       </c>
       <c r="L3" s="1">
         <v>15.256802</v>
       </c>
       <c r="M3" s="1">
-        <v>942.374000</v>
+        <v>942.37400000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.460000</v>
+        <v>-117.46</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>54935.050122</v>
+        <v>54935.050122000001</v>
       </c>
       <c r="Q3" s="1">
         <v>15.259736</v>
       </c>
       <c r="R3" s="1">
-        <v>948.745000</v>
+        <v>948.745</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.695000</v>
+        <v>-102.69499999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>54945.608954</v>
+        <v>54945.608954000003</v>
       </c>
       <c r="V3" s="1">
-        <v>15.262669</v>
+        <v>15.262669000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>955.241000</v>
+        <v>955.24099999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.286700</v>
+        <v>-89.286699999999996</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>54955.720397</v>
+        <v>54955.720396999997</v>
       </c>
       <c r="AA3" s="1">
         <v>15.265478</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.443000</v>
+        <v>962.44299999999998</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.136100</v>
+        <v>-80.136099999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>54965.999984</v>
+        <v>54965.999984000002</v>
       </c>
       <c r="AF3" s="1">
         <v>15.268333</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.394000</v>
+        <v>967.39400000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.827300</v>
+        <v>-79.827299999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>54976.121346</v>
       </c>
       <c r="AK3" s="1">
-        <v>15.271145</v>
+        <v>15.271145000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.371000</v>
+        <v>975.37099999999998</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.831800</v>
+        <v>-87.831800000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>54986.757588</v>
@@ -858,103 +1274,103 @@
         <v>15.274099</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.685000</v>
+        <v>984.68499999999995</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.960000</v>
+        <v>-102.96</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>54997.390296</v>
+        <v>54997.390295999998</v>
       </c>
       <c r="AU3" s="1">
         <v>15.277053</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.219000</v>
+        <v>996.21900000000005</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.685000</v>
+        <v>-124.685</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>55008.430280</v>
+        <v>55008.43028</v>
       </c>
       <c r="AZ3" s="1">
-        <v>15.280120</v>
+        <v>15.28012</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.950000</v>
+        <v>1005.95</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.539000</v>
+        <v>-143.53899999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>55019.383401</v>
+        <v>55019.383400999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>15.283162</v>
+        <v>15.283162000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1051.890000</v>
+        <v>1051.8900000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.488000</v>
+        <v>-228.488</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>55029.999314</v>
+        <v>55029.999314000001</v>
       </c>
       <c r="BJ3" s="1">
         <v>15.286111</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.000000</v>
+        <v>1132</v>
       </c>
       <c r="BL3" s="1">
-        <v>-364.117000</v>
+        <v>-364.11700000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>55040.713884</v>
+        <v>55040.713883999997</v>
       </c>
       <c r="BO3" s="1">
         <v>15.289087</v>
       </c>
       <c r="BP3" s="1">
-        <v>1263.790000</v>
+        <v>1263.79</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-573.417000</v>
+        <v>-573.41700000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>55051.450255</v>
+        <v>55051.450255000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>15.292070</v>
+        <v>15.292070000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1411.350000</v>
+        <v>1411.35</v>
       </c>
       <c r="BV3" s="1">
-        <v>-797.307000</v>
+        <v>-797.30700000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>55062.111265</v>
@@ -963,120 +1379,120 @@
         <v>15.295031</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1573.220000</v>
+        <v>1573.22</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1030.010000</v>
+        <v>-1030.01</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>55073.271747</v>
+        <v>55073.271746999999</v>
       </c>
       <c r="CD3" s="1">
         <v>15.298131</v>
       </c>
       <c r="CE3" s="1">
-        <v>1980.590000</v>
+        <v>1980.59</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1574.730000</v>
+        <v>-1574.73</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>54903.946003</v>
+        <v>54903.946002999997</v>
       </c>
       <c r="B4" s="1">
         <v>15.251096</v>
       </c>
       <c r="C4" s="1">
-        <v>904.112000</v>
+        <v>904.11199999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-192.622000</v>
+        <v>-192.62200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>54914.328756</v>
+        <v>54914.328756000003</v>
       </c>
       <c r="G4" s="1">
-        <v>15.253980</v>
+        <v>15.25398</v>
       </c>
       <c r="H4" s="1">
-        <v>920.494000</v>
+        <v>920.49400000000003</v>
       </c>
       <c r="I4" s="1">
-        <v>-163.484000</v>
+        <v>-163.48400000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>54924.869239</v>
       </c>
       <c r="L4" s="1">
-        <v>15.256908</v>
+        <v>15.256907999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>942.374000</v>
+        <v>942.37400000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.586000</v>
+        <v>-117.586</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>54935.395833</v>
+        <v>54935.395833000002</v>
       </c>
       <c r="Q4" s="1">
-        <v>15.259832</v>
+        <v>15.259831999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>948.755000</v>
+        <v>948.755</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.661000</v>
+        <v>-102.661</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>54945.950234</v>
+        <v>54945.950234000004</v>
       </c>
       <c r="V4" s="1">
-        <v>15.262764</v>
+        <v>15.262764000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>955.242000</v>
+        <v>955.24199999999996</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.194500</v>
+        <v>-89.194500000000005</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>54956.071069</v>
+        <v>54956.071068999998</v>
       </c>
       <c r="AA4" s="1">
         <v>15.265575</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.414000</v>
+        <v>962.41399999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.108400</v>
+        <v>-80.108400000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>54966.342223</v>
@@ -1085,73 +1501,73 @@
         <v>15.268428</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.387000</v>
+        <v>967.38699999999994</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.838000</v>
+        <v>-79.837999999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>54976.540467</v>
+        <v>54976.540466999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>15.271261</v>
+        <v>15.271261000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.365000</v>
+        <v>975.36500000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.842400</v>
+        <v>-87.842399999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>54987.098840</v>
+        <v>54987.098839999999</v>
       </c>
       <c r="AP4" s="1">
         <v>15.274194</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.652000</v>
+        <v>984.65200000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.977000</v>
+        <v>-102.977</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>54997.739478</v>
+        <v>54997.739478000003</v>
       </c>
       <c r="AU4" s="1">
-        <v>15.277150</v>
+        <v>15.277150000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.185000</v>
+        <v>996.18499999999995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.710000</v>
+        <v>-124.71</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>55008.788855</v>
+        <v>55008.788854999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>15.280219</v>
+        <v>15.280219000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.970000</v>
+        <v>1005.97</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.532000</v>
+        <v>-143.53200000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>55019.747465</v>
@@ -1160,270 +1576,270 @@
         <v>15.283263</v>
       </c>
       <c r="BF4" s="1">
-        <v>1051.890000</v>
+        <v>1051.8900000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.480000</v>
+        <v>-228.48</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>55030.375739</v>
+        <v>55030.375739000003</v>
       </c>
       <c r="BJ4" s="1">
         <v>15.286215</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.020000</v>
+        <v>1132.02</v>
       </c>
       <c r="BL4" s="1">
-        <v>-364.150000</v>
+        <v>-364.15</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>55041.530269</v>
+        <v>55041.530269000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>15.289314</v>
+        <v>15.289313999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1263.820000</v>
+        <v>1263.82</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-573.406000</v>
+        <v>-573.40599999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>55051.867422</v>
+        <v>55051.867422000003</v>
       </c>
       <c r="BT4" s="1">
         <v>15.292185</v>
       </c>
       <c r="BU4" s="1">
-        <v>1411.400000</v>
+        <v>1411.4</v>
       </c>
       <c r="BV4" s="1">
-        <v>-797.348000</v>
+        <v>-797.34799999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>55062.560640</v>
+        <v>55062.560640000003</v>
       </c>
       <c r="BY4" s="1">
         <v>15.295156</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1573.240000</v>
+        <v>1573.24</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1029.990000</v>
+        <v>-1029.99</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>55073.810930</v>
+        <v>55073.81093</v>
       </c>
       <c r="CD4" s="1">
-        <v>15.298281</v>
+        <v>15.298280999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1981.520000</v>
+        <v>1981.52</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1573.500000</v>
+        <v>-1573.5</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>54904.319025</v>
+        <v>54904.319024999997</v>
       </c>
       <c r="B5" s="1">
-        <v>15.251200</v>
+        <v>15.251200000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>904.359000</v>
+        <v>904.35900000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>-192.525000</v>
+        <v>-192.52500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>54914.710180</v>
+        <v>54914.710180000002</v>
       </c>
       <c r="G5" s="1">
-        <v>15.254086</v>
+        <v>15.254085999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>920.723000</v>
+        <v>920.72299999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-163.265000</v>
+        <v>-163.26499999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>54925.217926</v>
+        <v>54925.217925999998</v>
       </c>
       <c r="L5" s="1">
-        <v>15.257005</v>
+        <v>15.257004999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>942.283000</v>
+        <v>942.28300000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.647000</v>
+        <v>-117.64700000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>54935.742057</v>
+        <v>54935.742057000003</v>
       </c>
       <c r="Q5" s="1">
         <v>15.259928</v>
       </c>
       <c r="R5" s="1">
-        <v>948.754000</v>
+        <v>948.75400000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.645000</v>
+        <v>-102.645</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>54946.292441</v>
+        <v>54946.292440999998</v>
       </c>
       <c r="V5" s="1">
-        <v>15.262859</v>
+        <v>15.262859000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>955.146000</v>
+        <v>955.14599999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.244800</v>
+        <v>-89.244799999999998</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>54956.489196</v>
+        <v>54956.489196000002</v>
       </c>
       <c r="AA5" s="1">
         <v>15.265691</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.445000</v>
+        <v>962.44500000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.025500</v>
+        <v>-80.025499999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>54966.768821</v>
+        <v>54966.768820999998</v>
       </c>
       <c r="AF5" s="1">
         <v>15.268547</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.395000</v>
+        <v>967.39499999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.879300</v>
+        <v>-79.879300000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>54976.842033</v>
+        <v>54976.842033000001</v>
       </c>
       <c r="AK5" s="1">
         <v>15.271345</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.384000</v>
+        <v>975.38400000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.834400</v>
+        <v>-87.834400000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>54987.455924</v>
+        <v>54987.455924000002</v>
       </c>
       <c r="AP5" s="1">
         <v>15.274293</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.659000</v>
+        <v>984.65899999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.992000</v>
+        <v>-102.992</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>54998.103579</v>
+        <v>54998.103579000002</v>
       </c>
       <c r="AU5" s="1">
         <v>15.277251</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.196000</v>
+        <v>996.19600000000003</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.715000</v>
+        <v>-124.715</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>55009.146999</v>
+        <v>55009.146998999997</v>
       </c>
       <c r="AZ5" s="1">
         <v>15.280319</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.960000</v>
+        <v>1005.96</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.558000</v>
+        <v>-143.55799999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>55020.103592</v>
+        <v>55020.103591999999</v>
       </c>
       <c r="BE5" s="1">
         <v>15.283362</v>
       </c>
       <c r="BF5" s="1">
-        <v>1051.880000</v>
+        <v>1051.8800000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.497000</v>
+        <v>-228.49700000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>55031.124699</v>
@@ -1432,13 +1848,13 @@
         <v>15.286424</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.030000</v>
+        <v>1132.03</v>
       </c>
       <c r="BL5" s="1">
-        <v>-364.134000</v>
+        <v>-364.13400000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>55041.935501</v>
@@ -1447,437 +1863,437 @@
         <v>15.289427</v>
       </c>
       <c r="BP5" s="1">
-        <v>1263.810000</v>
+        <v>1263.81</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-573.426000</v>
+        <v>-573.42600000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>55052.281090</v>
+        <v>55052.281089999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>15.292300</v>
+        <v>15.292299999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1411.430000</v>
+        <v>1411.43</v>
       </c>
       <c r="BV5" s="1">
-        <v>-797.369000</v>
+        <v>-797.36900000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>55063.014016</v>
+        <v>55063.014016000001</v>
       </c>
       <c r="BY5" s="1">
         <v>15.295282</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1573.240000</v>
+        <v>1573.24</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1030.140000</v>
+        <v>-1030.1400000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>55074.350544</v>
+        <v>55074.350544000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>15.298431</v>
+        <v>15.298431000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1981.310000</v>
+        <v>1981.31</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1573.080000</v>
+        <v>-1573.08</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>54904.664210</v>
+        <v>54904.664210000003</v>
       </c>
       <c r="B6" s="1">
         <v>15.251296</v>
       </c>
       <c r="C6" s="1">
-        <v>904.162000</v>
+        <v>904.16200000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>-192.609000</v>
+        <v>-192.60900000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>54915.083708</v>
+        <v>54915.083707999998</v>
       </c>
       <c r="G6" s="1">
-        <v>15.254190</v>
+        <v>15.254189999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>920.520000</v>
+        <v>920.52</v>
       </c>
       <c r="I6" s="1">
-        <v>-163.359000</v>
+        <v>-163.35900000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>54925.561194</v>
+        <v>54925.561194000002</v>
       </c>
       <c r="L6" s="1">
-        <v>15.257100</v>
+        <v>15.257099999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>942.277000</v>
+        <v>942.27700000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-117.557000</v>
+        <v>-117.557</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>54936.156199</v>
+        <v>54936.156198999997</v>
       </c>
       <c r="Q6" s="1">
         <v>15.260043</v>
       </c>
       <c r="R6" s="1">
-        <v>948.757000</v>
+        <v>948.75699999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.629000</v>
+        <v>-102.629</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>54946.706601</v>
+        <v>54946.706600999998</v>
       </c>
       <c r="V6" s="1">
         <v>15.262974</v>
       </c>
       <c r="W6" s="1">
-        <v>955.102000</v>
+        <v>955.10199999999998</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.311400</v>
+        <v>-89.311400000000006</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>54956.768940</v>
+        <v>54956.768940000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>15.265769</v>
+        <v>15.265769000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.461000</v>
+        <v>962.46100000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.074500</v>
+        <v>-80.0745</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>54967.029716</v>
+        <v>54967.029715999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>15.268619</v>
+        <v>15.268618999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.358000</v>
+        <v>967.35799999999995</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.834200</v>
+        <v>-79.834199999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>54977.188769</v>
       </c>
       <c r="AK6" s="1">
-        <v>15.271441</v>
+        <v>15.271440999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.372000</v>
+        <v>975.37199999999996</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.816400</v>
+        <v>-87.816400000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>54987.818499</v>
+        <v>54987.818499000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>15.274394</v>
+        <v>15.274393999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.658000</v>
+        <v>984.65800000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.974000</v>
+        <v>-102.974</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>54998.468632</v>
+        <v>54998.468631999996</v>
       </c>
       <c r="AU6" s="1">
         <v>15.277352</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.229000</v>
+        <v>996.22900000000004</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.702000</v>
+        <v>-124.702</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>55009.867655</v>
+        <v>55009.867655000002</v>
       </c>
       <c r="AZ6" s="1">
         <v>15.280519</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.950000</v>
+        <v>1005.95</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.541000</v>
+        <v>-143.541</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>55020.828467</v>
+        <v>55020.828466999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>15.283563</v>
+        <v>15.283562999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1051.900000</v>
+        <v>1051.9000000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.472000</v>
+        <v>-228.47200000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>55031.501194</v>
+        <v>55031.501193999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>15.286528</v>
+        <v>15.286528000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.030000</v>
+        <v>1132.03</v>
       </c>
       <c r="BL6" s="1">
-        <v>-364.154000</v>
+        <v>-364.154</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>55042.345195</v>
+        <v>55042.345195000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>15.289540</v>
+        <v>15.289540000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1263.820000</v>
+        <v>1263.82</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-573.396000</v>
+        <v>-573.39599999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>55052.692241</v>
+        <v>55052.692240999997</v>
       </c>
       <c r="BT6" s="1">
         <v>15.292415</v>
       </c>
       <c r="BU6" s="1">
-        <v>1411.430000</v>
+        <v>1411.43</v>
       </c>
       <c r="BV6" s="1">
-        <v>-797.377000</v>
+        <v>-797.37699999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>55063.768431</v>
+        <v>55063.768430999997</v>
       </c>
       <c r="BY6" s="1">
         <v>15.295491</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1573.280000</v>
+        <v>1573.28</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1029.990000</v>
+        <v>-1029.99</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>55074.867873</v>
+        <v>55074.867873000003</v>
       </c>
       <c r="CD6" s="1">
         <v>15.298574</v>
       </c>
       <c r="CE6" s="1">
-        <v>1980.400000</v>
+        <v>1980.4</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1574.540000</v>
+        <v>-1574.54</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>54905.003472</v>
+        <v>54905.003471999997</v>
       </c>
       <c r="B7" s="1">
-        <v>15.251390</v>
+        <v>15.251390000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>904.107000</v>
+        <v>904.10699999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-192.626000</v>
+        <v>-192.626</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>54915.506793</v>
       </c>
       <c r="G7" s="1">
-        <v>15.254307</v>
+        <v>15.254307000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>920.870000</v>
+        <v>920.87</v>
       </c>
       <c r="I7" s="1">
-        <v>-163.736000</v>
+        <v>-163.73599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>54925.992677</v>
+        <v>54925.992677000002</v>
       </c>
       <c r="L7" s="1">
-        <v>15.257220</v>
+        <v>15.25722</v>
       </c>
       <c r="M7" s="1">
-        <v>942.280000</v>
+        <v>942.28</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.435000</v>
+        <v>-117.435</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>54936.444901</v>
+        <v>54936.444901000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>15.260124</v>
+        <v>15.260123999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>948.790000</v>
+        <v>948.79</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.655000</v>
+        <v>-102.655</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>54946.985849</v>
+        <v>54946.985848999997</v>
       </c>
       <c r="V7" s="1">
         <v>15.263052</v>
       </c>
       <c r="W7" s="1">
-        <v>955.261000</v>
+        <v>955.26099999999997</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.264800</v>
+        <v>-89.264799999999994</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>54957.115675</v>
+        <v>54957.115675000001</v>
       </c>
       <c r="AA7" s="1">
         <v>15.265865</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.394000</v>
+        <v>962.39400000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.094800</v>
+        <v>-80.094800000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>54967.373943</v>
+        <v>54967.373942999999</v>
       </c>
       <c r="AF7" s="1">
         <v>15.268715</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.381000</v>
+        <v>967.38099999999997</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.847500</v>
+        <v>-79.847499999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>54977.539905</v>
+        <v>54977.539904999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>15.271539</v>
+        <v>15.271539000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.376000</v>
+        <v>975.37599999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.820000</v>
+        <v>-87.82</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>54988.539225</v>
@@ -1886,118 +2302,118 @@
         <v>15.274594</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.685000</v>
+        <v>984.68499999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.979000</v>
+        <v>-102.979</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>54999.201716</v>
+        <v>54999.201716000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>15.277556</v>
+        <v>15.277556000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.200000</v>
+        <v>996.2</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.676000</v>
+        <v>-124.676</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>55010.254037</v>
+        <v>55010.254036999999</v>
       </c>
       <c r="AZ7" s="1">
         <v>15.280626</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.960000</v>
+        <v>1005.96</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.530000</v>
+        <v>-143.53</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>55021.219126</v>
+        <v>55021.219126000004</v>
       </c>
       <c r="BE7" s="1">
-        <v>15.283672</v>
+        <v>15.283671999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1051.870000</v>
+        <v>1051.8699999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.478000</v>
+        <v>-228.47800000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>55031.877131</v>
+        <v>55031.877131000001</v>
       </c>
       <c r="BJ7" s="1">
         <v>15.286633</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.000000</v>
+        <v>1132</v>
       </c>
       <c r="BL7" s="1">
-        <v>-364.131000</v>
+        <v>-364.13099999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>55043.047571</v>
+        <v>55043.047571000003</v>
       </c>
       <c r="BO7" s="1">
         <v>15.289735</v>
       </c>
       <c r="BP7" s="1">
-        <v>1263.840000</v>
+        <v>1263.8399999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-573.410000</v>
+        <v>-573.41</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>55053.410445</v>
+        <v>55053.410445000001</v>
       </c>
       <c r="BT7" s="1">
         <v>15.292614</v>
       </c>
       <c r="BU7" s="1">
-        <v>1411.470000</v>
+        <v>1411.47</v>
       </c>
       <c r="BV7" s="1">
-        <v>-797.346000</v>
+        <v>-797.346</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>55063.914222</v>
+        <v>55063.914221999999</v>
       </c>
       <c r="BY7" s="1">
         <v>15.295532</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1573.320000</v>
+        <v>1573.32</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1030.120000</v>
+        <v>-1030.1199999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>55075.388175</v>
@@ -2006,165 +2422,165 @@
         <v>15.298719</v>
       </c>
       <c r="CE7" s="1">
-        <v>1980.230000</v>
+        <v>1980.23</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1574.020000</v>
+        <v>-1574.02</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>54905.424577</v>
+        <v>54905.424576999998</v>
       </c>
       <c r="B8" s="1">
         <v>15.251507</v>
       </c>
       <c r="C8" s="1">
-        <v>904.240000</v>
+        <v>904.24</v>
       </c>
       <c r="D8" s="1">
-        <v>-192.639000</v>
+        <v>-192.63900000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>54915.789015</v>
+        <v>54915.789015000002</v>
       </c>
       <c r="G8" s="1">
         <v>15.254386</v>
       </c>
       <c r="H8" s="1">
-        <v>920.675000</v>
+        <v>920.67499999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-163.462000</v>
+        <v>-163.46199999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>54926.272420</v>
+        <v>54926.272420000001</v>
       </c>
       <c r="L8" s="1">
         <v>15.257298</v>
       </c>
       <c r="M8" s="1">
-        <v>942.316000</v>
+        <v>942.31600000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-117.583000</v>
+        <v>-117.583</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>54936.793590</v>
+        <v>54936.793590000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>15.260220</v>
+        <v>15.26022</v>
       </c>
       <c r="R8" s="1">
-        <v>948.768000</v>
+        <v>948.76800000000003</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.686000</v>
+        <v>-102.68600000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>54947.329081</v>
+        <v>54947.329081000003</v>
       </c>
       <c r="V8" s="1">
         <v>15.263147</v>
       </c>
       <c r="W8" s="1">
-        <v>955.149000</v>
+        <v>955.149</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.254500</v>
+        <v>-89.254499999999993</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>54957.464374</v>
+        <v>54957.464374000003</v>
       </c>
       <c r="AA8" s="1">
         <v>15.265962</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.397000</v>
+        <v>962.39700000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.127200</v>
+        <v>-80.127200000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>54967.986461</v>
       </c>
       <c r="AF8" s="1">
-        <v>15.268885</v>
+        <v>15.268884999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.390000</v>
+        <v>967.39</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.871400</v>
+        <v>-79.871399999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>54978.236821</v>
+        <v>54978.236820999999</v>
       </c>
       <c r="AK8" s="1">
         <v>15.271732</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.372000</v>
+        <v>975.37199999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.823200</v>
+        <v>-87.8232</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>54988.897299</v>
+        <v>54988.897298999997</v>
       </c>
       <c r="AP8" s="1">
         <v>15.274694</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.663000</v>
+        <v>984.66300000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.955000</v>
+        <v>-102.955</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>54999.583135</v>
+        <v>54999.583135000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>15.277662</v>
+        <v>15.277661999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.197000</v>
+        <v>996.197</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.693000</v>
+        <v>-124.693</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>55010.611653</v>
@@ -2173,13 +2589,13 @@
         <v>15.280725</v>
       </c>
       <c r="BA8" s="1">
-        <v>1006.000000</v>
+        <v>1006</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.550000</v>
+        <v>-143.55000000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>55021.549926</v>
@@ -2188,285 +2604,285 @@
         <v>15.283764</v>
       </c>
       <c r="BF8" s="1">
-        <v>1051.880000</v>
+        <v>1051.8800000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.488000</v>
+        <v>-228.488</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>55032.561609</v>
+        <v>55032.561608999997</v>
       </c>
       <c r="BJ8" s="1">
         <v>15.286823</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.040000</v>
+        <v>1132.04</v>
       </c>
       <c r="BL8" s="1">
-        <v>-364.113000</v>
+        <v>-364.113</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>55043.178474</v>
       </c>
       <c r="BO8" s="1">
-        <v>15.289772</v>
+        <v>15.289771999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1263.800000</v>
+        <v>1263.8</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-573.450000</v>
+        <v>-573.45000000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>55053.523036</v>
+        <v>55053.523035999999</v>
       </c>
       <c r="BT8" s="1">
         <v>15.292645</v>
       </c>
       <c r="BU8" s="1">
-        <v>1411.610000</v>
+        <v>1411.61</v>
       </c>
       <c r="BV8" s="1">
-        <v>-797.357000</v>
+        <v>-797.35699999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>55064.333839</v>
+        <v>55064.333838999999</v>
       </c>
       <c r="BY8" s="1">
         <v>15.295648</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1573.310000</v>
+        <v>1573.31</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1030.070000</v>
+        <v>-1030.07</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>55075.935295</v>
+        <v>55075.935295000003</v>
       </c>
       <c r="CD8" s="1">
         <v>15.298871</v>
       </c>
       <c r="CE8" s="1">
-        <v>1981.340000</v>
+        <v>1981.34</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1573.360000</v>
+        <v>-1573.36</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>54905.703861</v>
+        <v>54905.703861000002</v>
       </c>
       <c r="B9" s="1">
-        <v>15.251584</v>
+        <v>15.251583999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>904.218000</v>
+        <v>904.21799999999996</v>
       </c>
       <c r="D9" s="1">
-        <v>-192.773000</v>
+        <v>-192.773</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>54916.132241</v>
+        <v>54916.132240999999</v>
       </c>
       <c r="G9" s="1">
         <v>15.254481</v>
       </c>
       <c r="H9" s="1">
-        <v>920.977000</v>
+        <v>920.97699999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-163.403000</v>
+        <v>-163.40299999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>54926.617637</v>
+        <v>54926.617637000003</v>
       </c>
       <c r="L9" s="1">
         <v>15.257394</v>
       </c>
       <c r="M9" s="1">
-        <v>942.235000</v>
+        <v>942.23500000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-117.570000</v>
+        <v>-117.57</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>54937.142775</v>
       </c>
       <c r="Q9" s="1">
-        <v>15.260317</v>
+        <v>15.260317000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>948.731000</v>
+        <v>948.73099999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.649000</v>
+        <v>-102.649</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>54947.675326</v>
+        <v>54947.675325999997</v>
       </c>
       <c r="V9" s="1">
-        <v>15.263243</v>
+        <v>15.263242999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>955.107000</v>
+        <v>955.10699999999997</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.281000</v>
+        <v>-89.281000000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>54958.160716</v>
+        <v>54958.160715999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>15.266156</v>
+        <v>15.266156000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.439000</v>
+        <v>962.43899999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.114900</v>
+        <v>-80.114900000000006</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>54968.403597</v>
+        <v>54968.403596999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>15.269001</v>
+        <v>15.269000999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.386000</v>
+        <v>967.38599999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.846800</v>
+        <v>-79.846800000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>54978.584976</v>
+        <v>54978.584975999998</v>
       </c>
       <c r="AK9" s="1">
         <v>15.271829</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.380000</v>
+        <v>975.38</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.837600</v>
+        <v>-87.837599999999995</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>54989.257922</v>
+        <v>54989.257921999997</v>
       </c>
       <c r="AP9" s="1">
         <v>15.274794</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.662000</v>
+        <v>984.66200000000003</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.984000</v>
+        <v>-102.98399999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>54999.945683</v>
+        <v>54999.945682999998</v>
       </c>
       <c r="AU9" s="1">
         <v>15.277763</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.205000</v>
+        <v>996.20500000000004</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.692000</v>
+        <v>-124.69199999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>55011.284229</v>
+        <v>55011.284228999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>15.280912</v>
+        <v>15.280912000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.980000</v>
+        <v>1005.98</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.541000</v>
+        <v>-143.541</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>55021.988920</v>
+        <v>55021.988920000003</v>
       </c>
       <c r="BE9" s="1">
-        <v>15.283886</v>
+        <v>15.283886000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1051.870000</v>
+        <v>1051.8699999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.468000</v>
+        <v>-228.46799999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>55032.667752</v>
+        <v>55032.667752000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>15.286852</v>
       </c>
       <c r="BK9" s="1">
-        <v>1131.990000</v>
+        <v>1131.99</v>
       </c>
       <c r="BL9" s="1">
-        <v>-364.168000</v>
+        <v>-364.16800000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>55043.586185</v>
@@ -2475,28 +2891,28 @@
         <v>15.289885</v>
       </c>
       <c r="BP9" s="1">
-        <v>1263.810000</v>
+        <v>1263.81</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-573.434000</v>
+        <v>-573.43399999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>55053.960509</v>
+        <v>55053.960508999997</v>
       </c>
       <c r="BT9" s="1">
         <v>15.292767</v>
       </c>
       <c r="BU9" s="1">
-        <v>1411.570000</v>
+        <v>1411.57</v>
       </c>
       <c r="BV9" s="1">
-        <v>-797.393000</v>
+        <v>-797.39300000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>55064.761391</v>
@@ -2505,135 +2921,135 @@
         <v>15.295767</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1573.290000</v>
+        <v>1573.29</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1030.130000</v>
+        <v>-1030.1300000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>55076.469986</v>
+        <v>55076.469985999996</v>
       </c>
       <c r="CD9" s="1">
-        <v>15.299019</v>
+        <v>15.299018999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1980.430000</v>
+        <v>1980.43</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1574.940000</v>
+        <v>-1574.94</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>54906.044575</v>
       </c>
       <c r="B10" s="1">
-        <v>15.251679</v>
+        <v>15.251678999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>904.250000</v>
+        <v>904.25</v>
       </c>
       <c r="D10" s="1">
-        <v>-192.701000</v>
+        <v>-192.70099999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>54916.476465</v>
       </c>
       <c r="G10" s="1">
-        <v>15.254577</v>
+        <v>15.254576999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>920.693000</v>
+        <v>920.69299999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-163.647000</v>
+        <v>-163.64699999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>54926.962355</v>
+        <v>54926.962355000003</v>
       </c>
       <c r="L10" s="1">
-        <v>15.257490</v>
+        <v>15.257490000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>942.296000</v>
+        <v>942.29600000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-117.575000</v>
+        <v>-117.575</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>54937.841146</v>
+        <v>54937.841145999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>15.260511</v>
+        <v>15.260510999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>948.745000</v>
+        <v>948.745</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.591000</v>
+        <v>-102.59099999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>54948.358812</v>
+        <v>54948.358811999999</v>
       </c>
       <c r="V10" s="1">
-        <v>15.263433</v>
+        <v>15.263432999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>955.075000</v>
+        <v>955.07500000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.308900</v>
+        <v>-89.308899999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>54958.506458</v>
+        <v>54958.506458000003</v>
       </c>
       <c r="AA10" s="1">
         <v>15.266252</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.414000</v>
+        <v>962.41399999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.127200</v>
+        <v>-80.127200000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>54968.749804</v>
+        <v>54968.749803999999</v>
       </c>
       <c r="AF10" s="1">
         <v>15.269097</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.395000</v>
+        <v>967.39499999999998</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.843200</v>
+        <v>-79.843199999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>54978.930688</v>
@@ -2642,512 +3058,512 @@
         <v>15.271925</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.409000</v>
+        <v>975.40899999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.840200</v>
+        <v>-87.840199999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>54989.927024</v>
+        <v>54989.927023999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>15.274980</v>
+        <v>15.274979999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.678000</v>
+        <v>984.678</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.972000</v>
+        <v>-102.97199999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>55000.630321</v>
+        <v>55000.630320999997</v>
       </c>
       <c r="AU10" s="1">
         <v>15.277953</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.201000</v>
+        <v>996.20100000000002</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.699000</v>
+        <v>-124.699</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>55011.720739</v>
+        <v>55011.720738999997</v>
       </c>
       <c r="AZ10" s="1">
         <v>15.281034</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.980000</v>
+        <v>1005.98</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.542000</v>
+        <v>-143.542</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>55022.273095</v>
+        <v>55022.273094999997</v>
       </c>
       <c r="BE10" s="1">
         <v>15.283965</v>
       </c>
       <c r="BF10" s="1">
-        <v>1051.910000</v>
+        <v>1051.9100000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.482000</v>
+        <v>-228.482</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>55033.027848</v>
+        <v>55033.027847999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>15.286952</v>
+        <v>15.286951999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.010000</v>
+        <v>1132.01</v>
       </c>
       <c r="BL10" s="1">
-        <v>-364.128000</v>
+        <v>-364.12799999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>55043.973561</v>
+        <v>55043.973560999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>15.289993</v>
+        <v>15.289993000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1263.780000</v>
+        <v>1263.78</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-573.431000</v>
+        <v>-573.43100000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>55054.375525</v>
+        <v>55054.375525000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>15.292882</v>
+        <v>15.292882000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1411.550000</v>
+        <v>1411.55</v>
       </c>
       <c r="BV10" s="1">
-        <v>-797.349000</v>
+        <v>-797.34900000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>55065.184012</v>
+        <v>55065.184011999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>15.295884</v>
+        <v>15.295883999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1573.250000</v>
+        <v>1573.25</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1030.070000</v>
+        <v>-1030.07</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>55076.988269</v>
+        <v>55076.988269000001</v>
       </c>
       <c r="CD10" s="1">
         <v>15.299163</v>
       </c>
       <c r="CE10" s="1">
-        <v>1981.990000</v>
+        <v>1981.99</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1575.030000</v>
+        <v>-1575.03</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>54906.389791</v>
+        <v>54906.389791000001</v>
       </c>
       <c r="B11" s="1">
         <v>15.251775</v>
       </c>
       <c r="C11" s="1">
-        <v>904.181000</v>
+        <v>904.18100000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-192.804000</v>
+        <v>-192.804</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>54917.164907</v>
+        <v>54917.164906999998</v>
       </c>
       <c r="G11" s="1">
         <v>15.254768</v>
       </c>
       <c r="H11" s="1">
-        <v>920.509000</v>
+        <v>920.50900000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-163.206000</v>
+        <v>-163.20599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>54927.655303</v>
       </c>
       <c r="L11" s="1">
-        <v>15.257682</v>
+        <v>15.257682000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>942.351000</v>
+        <v>942.351</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.548000</v>
+        <v>-117.548</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>54938.188804</v>
+        <v>54938.188803999998</v>
       </c>
       <c r="Q11" s="1">
         <v>15.260608</v>
       </c>
       <c r="R11" s="1">
-        <v>948.759000</v>
+        <v>948.75900000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.669000</v>
+        <v>-102.669</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>54948.701015</v>
+        <v>54948.701014999999</v>
       </c>
       <c r="V11" s="1">
-        <v>15.263528</v>
+        <v>15.263528000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>955.305000</v>
+        <v>955.30499999999995</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.325500</v>
+        <v>-89.325500000000005</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>54958.857594</v>
+        <v>54958.857594000001</v>
       </c>
       <c r="AA11" s="1">
         <v>15.266349</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.439000</v>
+        <v>962.43899999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.133200</v>
+        <v>-80.133200000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>54969.418907</v>
+        <v>54969.418906999999</v>
       </c>
       <c r="AF11" s="1">
         <v>15.269283</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.438000</v>
+        <v>967.43799999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.854900</v>
+        <v>-79.854900000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>54979.589871</v>
+        <v>54979.589870999996</v>
       </c>
       <c r="AK11" s="1">
-        <v>15.272108</v>
+        <v>15.272107999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.384000</v>
+        <v>975.38400000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.861100</v>
+        <v>-87.861099999999993</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>54990.374421</v>
       </c>
       <c r="AP11" s="1">
-        <v>15.275104</v>
+        <v>15.275104000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.678000</v>
+        <v>984.678</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.991000</v>
+        <v>-102.991</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>55001.070115</v>
+        <v>55001.070115000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>15.278075</v>
+        <v>15.278074999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.192000</v>
+        <v>996.19200000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.712000</v>
+        <v>-124.712</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>55012.079844</v>
       </c>
       <c r="AZ11" s="1">
-        <v>15.281133</v>
+        <v>15.281133000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.980000</v>
+        <v>1005.98</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.524000</v>
+        <v>-143.524</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>55022.632198</v>
+        <v>55022.632197999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>15.284064</v>
+        <v>15.284064000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1051.880000</v>
+        <v>1051.8800000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.478000</v>
+        <v>-228.47800000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>55033.404807</v>
+        <v>55033.404806999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>15.287057</v>
+        <v>15.287057000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1131.970000</v>
+        <v>1131.97</v>
       </c>
       <c r="BL11" s="1">
-        <v>-364.163000</v>
+        <v>-364.16300000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>55044.403594</v>
+        <v>55044.403594000003</v>
       </c>
       <c r="BO11" s="1">
-        <v>15.290112</v>
+        <v>15.290112000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1263.790000</v>
+        <v>1263.79</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-573.443000</v>
+        <v>-573.44299999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>55054.799740</v>
+        <v>55054.799740000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>15.293000</v>
+        <v>15.292999999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1411.600000</v>
+        <v>1411.6</v>
       </c>
       <c r="BV11" s="1">
-        <v>-797.322000</v>
+        <v>-797.322</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>55065.623468</v>
+        <v>55065.623467999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>15.296007</v>
+        <v>15.296006999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1573.180000</v>
+        <v>1573.18</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1030.180000</v>
+        <v>-1030.18</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>55077.504639</v>
+        <v>55077.504638999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>15.299307</v>
+        <v>15.299307000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1982.200000</v>
+        <v>1982.2</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1573.530000</v>
+        <v>-1573.53</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>54907.070799</v>
+        <v>54907.070799000001</v>
       </c>
       <c r="B12" s="1">
-        <v>15.251964</v>
+        <v>15.251963999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>904.170000</v>
+        <v>904.17</v>
       </c>
       <c r="D12" s="1">
-        <v>-192.668000</v>
+        <v>-192.66800000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>54917.509137</v>
+        <v>54917.509137000001</v>
       </c>
       <c r="G12" s="1">
         <v>15.254864</v>
       </c>
       <c r="H12" s="1">
-        <v>920.478000</v>
+        <v>920.47799999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-163.414000</v>
+        <v>-163.41399999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>54927.999490</v>
+        <v>54927.999490000002</v>
       </c>
       <c r="L12" s="1">
         <v>15.257778</v>
       </c>
       <c r="M12" s="1">
-        <v>942.281000</v>
+        <v>942.28099999999995</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.608000</v>
+        <v>-117.608</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>54938.537492</v>
+        <v>54938.537492000003</v>
       </c>
       <c r="Q12" s="1">
         <v>15.260705</v>
       </c>
       <c r="R12" s="1">
-        <v>948.801000</v>
+        <v>948.80100000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.634000</v>
+        <v>-102.634</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>54949.045250</v>
+        <v>54949.045250000003</v>
       </c>
       <c r="V12" s="1">
         <v>15.263624</v>
       </c>
       <c r="W12" s="1">
-        <v>955.212000</v>
+        <v>955.21199999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.291700</v>
+        <v>-89.291700000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>54959.515290</v>
+        <v>54959.515290000003</v>
       </c>
       <c r="AA12" s="1">
         <v>15.266532</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.403000</v>
+        <v>962.40300000000002</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.064400</v>
+        <v>-80.064400000000006</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>54969.779500</v>
+        <v>54969.779499999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>15.269383</v>
+        <v>15.269382999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.380000</v>
+        <v>967.38</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.874600</v>
+        <v>-79.874600000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>54979.976788</v>
@@ -3156,240 +3572,240 @@
         <v>15.272216</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.374000</v>
+        <v>975.37400000000002</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.830300</v>
+        <v>-87.830299999999994</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>54990.733983</v>
+        <v>54990.733982999998</v>
       </c>
       <c r="AP12" s="1">
         <v>15.275204</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.645000</v>
+        <v>984.64499999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.970000</v>
+        <v>-102.97</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>55001.435169</v>
+        <v>55001.435168999997</v>
       </c>
       <c r="AU12" s="1">
         <v>15.278176</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.175000</v>
+        <v>996.17499999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.670000</v>
+        <v>-124.67</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>55012.436471</v>
+        <v>55012.436471000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>15.281232</v>
+        <v>15.281231999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.950000</v>
+        <v>1005.95</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.563000</v>
+        <v>-143.56299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>55023.054790</v>
+        <v>55023.054790000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>15.284182</v>
+        <v>15.284181999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1051.880000</v>
+        <v>1051.8800000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.489000</v>
+        <v>-228.489</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>55033.827247</v>
+        <v>55033.827247000001</v>
       </c>
       <c r="BJ12" s="1">
         <v>15.287174</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.020000</v>
+        <v>1132.02</v>
       </c>
       <c r="BL12" s="1">
-        <v>-364.112000</v>
+        <v>-364.11200000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>55044.799401</v>
+        <v>55044.799400999997</v>
       </c>
       <c r="BO12" s="1">
         <v>15.290222</v>
       </c>
       <c r="BP12" s="1">
-        <v>1263.830000</v>
+        <v>1263.83</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-573.430000</v>
+        <v>-573.42999999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>55055.206458</v>
+        <v>55055.206458000001</v>
       </c>
       <c r="BT12" s="1">
         <v>15.293113</v>
       </c>
       <c r="BU12" s="1">
-        <v>1411.630000</v>
+        <v>1411.63</v>
       </c>
       <c r="BV12" s="1">
-        <v>-797.301000</v>
+        <v>-797.30100000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>55066.049005</v>
+        <v>55066.049005000001</v>
       </c>
       <c r="BY12" s="1">
         <v>15.296125</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1573.240000</v>
+        <v>1573.24</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1030.030000</v>
+        <v>-1030.03</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>55078.022428</v>
+        <v>55078.022427999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>15.299451</v>
+        <v>15.299450999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1981.890000</v>
+        <v>1981.89</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1574.160000</v>
+        <v>-1574.16</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>54907.413039</v>
+        <v>54907.413038999999</v>
       </c>
       <c r="B13" s="1">
-        <v>15.252059</v>
+        <v>15.252058999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>904.152000</v>
+        <v>904.15200000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-192.605000</v>
+        <v>-192.60499999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>54917.855807</v>
       </c>
       <c r="G13" s="1">
-        <v>15.254960</v>
+        <v>15.254960000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>920.348000</v>
+        <v>920.34799999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-163.368000</v>
+        <v>-163.36799999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>54928.335779</v>
+        <v>54928.335779000001</v>
       </c>
       <c r="L13" s="1">
         <v>15.257871</v>
       </c>
       <c r="M13" s="1">
-        <v>942.195000</v>
+        <v>942.19500000000005</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.627000</v>
+        <v>-117.627</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>54939.205107</v>
+        <v>54939.205107000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>15.260890</v>
+        <v>15.26089</v>
       </c>
       <c r="R13" s="1">
-        <v>948.762000</v>
+        <v>948.76199999999994</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.668000</v>
+        <v>-102.66800000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>54949.792709</v>
+        <v>54949.792709000001</v>
       </c>
       <c r="V13" s="1">
         <v>15.263831</v>
       </c>
       <c r="W13" s="1">
-        <v>955.219000</v>
+        <v>955.21900000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.187600</v>
+        <v>-89.187600000000003</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>54959.905640</v>
+        <v>54959.905639999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>15.266640</v>
+        <v>15.266640000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.433000</v>
+        <v>962.43299999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.055400</v>
+        <v>-80.055400000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>54970.122765</v>
@@ -3398,13 +3814,13 @@
         <v>15.269479</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.394000</v>
+        <v>967.39400000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.840400</v>
+        <v>-79.840400000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>54980.327953</v>
@@ -3413,195 +3829,195 @@
         <v>15.272313</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.385000</v>
+        <v>975.38499999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.837300</v>
+        <v>-87.837299999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>54991.093618</v>
+        <v>54991.093617999999</v>
       </c>
       <c r="AP13" s="1">
         <v>15.275304</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.678000</v>
+        <v>984.678</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.980000</v>
+        <v>-102.98</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>55001.800758</v>
+        <v>55001.800757999998</v>
       </c>
       <c r="AU13" s="1">
         <v>15.278278</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.194000</v>
+        <v>996.19399999999996</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.678000</v>
+        <v>-124.678</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>55012.866009</v>
+        <v>55012.866008999998</v>
       </c>
       <c r="AZ13" s="1">
         <v>15.281352</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.960000</v>
+        <v>1005.96</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.536000</v>
+        <v>-143.536</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>55023.355860</v>
+        <v>55023.355860000003</v>
       </c>
       <c r="BE13" s="1">
-        <v>15.284266</v>
+        <v>15.284266000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1051.880000</v>
+        <v>1051.8800000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.481000</v>
+        <v>-228.48099999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>55034.152808</v>
+        <v>55034.152807999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>15.287265</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.050000</v>
+        <v>1132.05</v>
       </c>
       <c r="BL13" s="1">
-        <v>-364.118000</v>
+        <v>-364.11799999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>55045.218521</v>
+        <v>55045.218521000003</v>
       </c>
       <c r="BO13" s="1">
         <v>15.290338</v>
       </c>
       <c r="BP13" s="1">
-        <v>1263.830000</v>
+        <v>1263.83</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-573.438000</v>
+        <v>-573.43799999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>55055.621146</v>
+        <v>55055.621145999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>15.293228</v>
+        <v>15.293227999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1411.610000</v>
+        <v>1411.61</v>
       </c>
       <c r="BV13" s="1">
-        <v>-797.213000</v>
+        <v>-797.21299999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>55066.471596</v>
+        <v>55066.471596000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>15.296242</v>
+        <v>15.296241999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1573.280000</v>
+        <v>1573.28</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1030.130000</v>
+        <v>-1030.1300000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>55078.576496</v>
+        <v>55078.576496000001</v>
       </c>
       <c r="CD13" s="1">
         <v>15.299605</v>
       </c>
       <c r="CE13" s="1">
-        <v>1981.930000</v>
+        <v>1981.93</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1575.420000</v>
+        <v>-1575.42</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>54907.754285</v>
+        <v>54907.754285000003</v>
       </c>
       <c r="B14" s="1">
-        <v>15.252154</v>
+        <v>15.252154000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>904.316000</v>
+        <v>904.31600000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>-192.616000</v>
+        <v>-192.61600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>54918.506064</v>
+        <v>54918.506064000001</v>
       </c>
       <c r="G14" s="1">
         <v>15.255141</v>
       </c>
       <c r="H14" s="1">
-        <v>920.954000</v>
+        <v>920.95399999999995</v>
       </c>
       <c r="I14" s="1">
-        <v>-163.301000</v>
+        <v>-163.30099999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>54929.002905</v>
+        <v>54929.002905000001</v>
       </c>
       <c r="L14" s="1">
         <v>15.258056</v>
       </c>
       <c r="M14" s="1">
-        <v>942.172000</v>
+        <v>942.17200000000003</v>
       </c>
       <c r="N14" s="1">
-        <v>-117.678000</v>
+        <v>-117.678</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>54939.585539</v>
@@ -3610,178 +4026,178 @@
         <v>15.260996</v>
       </c>
       <c r="R14" s="1">
-        <v>948.751000</v>
+        <v>948.75099999999998</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.671000</v>
+        <v>-102.67100000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>54950.079397</v>
+        <v>54950.079397000001</v>
       </c>
       <c r="V14" s="1">
         <v>15.263911</v>
       </c>
       <c r="W14" s="1">
-        <v>955.165000</v>
+        <v>955.16499999999996</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.277400</v>
+        <v>-89.2774</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>54960.254327</v>
+        <v>54960.254327000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>15.266737</v>
+        <v>15.266736999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.372000</v>
+        <v>962.37199999999996</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.032600</v>
+        <v>-80.032600000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>54970.466459</v>
+        <v>54970.466459000003</v>
       </c>
       <c r="AF14" s="1">
         <v>15.269574</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.419000</v>
+        <v>967.41899999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.846900</v>
+        <v>-79.846900000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>54980.674657</v>
+        <v>54980.674657000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>15.272410</v>
+        <v>15.272410000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.374000</v>
+        <v>975.37400000000002</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.840700</v>
+        <v>-87.840699999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>54991.518159</v>
+        <v>54991.518158999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>15.275422</v>
+        <v>15.275422000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.646000</v>
+        <v>984.64599999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.971000</v>
+        <v>-102.971</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>55002.231783</v>
+        <v>55002.231783000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>15.278398</v>
+        <v>15.278397999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.208000</v>
+        <v>996.20799999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.689000</v>
+        <v>-124.68899999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>55013.156662</v>
+        <v>55013.156662000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>15.281432</v>
+        <v>15.281432000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.980000</v>
+        <v>1005.98</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.556000</v>
+        <v>-143.55600000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>55023.718468</v>
+        <v>55023.718467999999</v>
       </c>
       <c r="BE14" s="1">
         <v>15.284366</v>
       </c>
       <c r="BF14" s="1">
-        <v>1051.890000</v>
+        <v>1051.8900000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.503000</v>
+        <v>-228.50299999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>55034.552089</v>
+        <v>55034.552088999997</v>
       </c>
       <c r="BJ14" s="1">
         <v>15.287376</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.010000</v>
+        <v>1132.01</v>
       </c>
       <c r="BL14" s="1">
-        <v>-364.120000</v>
+        <v>-364.12</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>55045.616311</v>
+        <v>55045.616310999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>15.290449</v>
+        <v>15.290449000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1263.800000</v>
+        <v>1263.8</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-573.449000</v>
+        <v>-573.44899999999996</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>55056.035800</v>
+        <v>55056.035799999998</v>
       </c>
       <c r="BT14" s="1">
         <v>15.293343</v>
       </c>
       <c r="BU14" s="1">
-        <v>1411.700000</v>
+        <v>1411.7</v>
       </c>
       <c r="BV14" s="1">
-        <v>-797.242000</v>
+        <v>-797.24199999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>55066.915514</v>
@@ -3790,150 +4206,150 @@
         <v>15.296365</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1573.290000</v>
+        <v>1573.29</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1029.950000</v>
+        <v>-1029.95</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>55079.102253</v>
+        <v>55079.102252999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>15.299751</v>
+        <v>15.299751000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1981.860000</v>
+        <v>1981.86</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1573.850000</v>
+        <v>-1573.85</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>54908.409004</v>
+        <v>54908.409004000001</v>
       </c>
       <c r="B15" s="1">
         <v>15.252336</v>
       </c>
       <c r="C15" s="1">
-        <v>904.302000</v>
+        <v>904.30200000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>-192.398000</v>
+        <v>-192.398</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>54918.888478</v>
+        <v>54918.888478000001</v>
       </c>
       <c r="G15" s="1">
-        <v>15.255247</v>
+        <v>15.255247000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>920.603000</v>
+        <v>920.60299999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-163.499000</v>
+        <v>-163.499</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>54929.386576</v>
+        <v>54929.386575999997</v>
       </c>
       <c r="L15" s="1">
         <v>15.258163</v>
       </c>
       <c r="M15" s="1">
-        <v>942.406000</v>
+        <v>942.40599999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.690000</v>
+        <v>-117.69</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>54939.930756</v>
+        <v>54939.930756000002</v>
       </c>
       <c r="Q15" s="1">
         <v>15.261092</v>
       </c>
       <c r="R15" s="1">
-        <v>948.724000</v>
+        <v>948.72400000000005</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.706000</v>
+        <v>-102.706</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>54950.414728</v>
+        <v>54950.414728000003</v>
       </c>
       <c r="V15" s="1">
         <v>15.264004</v>
       </c>
       <c r="W15" s="1">
-        <v>955.104000</v>
+        <v>955.10400000000004</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.352900</v>
+        <v>-89.352900000000005</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>54960.600547</v>
+        <v>54960.600547000002</v>
       </c>
       <c r="AA15" s="1">
         <v>15.266833</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.396000</v>
+        <v>962.39599999999996</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.089900</v>
+        <v>-80.0899</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>54970.890043</v>
+        <v>54970.890042999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>15.269692</v>
+        <v>15.269691999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.418000</v>
+        <v>967.41800000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.888800</v>
+        <v>-79.888800000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>54981.104687</v>
+        <v>54981.104686999999</v>
       </c>
       <c r="AK15" s="1">
         <v>15.272529</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.381000</v>
+        <v>975.38099999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.824600</v>
+        <v>-87.824600000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>54991.815294</v>
@@ -3942,180 +4358,180 @@
         <v>15.275504</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.666000</v>
+        <v>984.66600000000005</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.976000</v>
+        <v>-102.976</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>55002.529345</v>
+        <v>55002.529345000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>15.278480</v>
+        <v>15.27848</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.223000</v>
+        <v>996.22299999999996</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.703000</v>
+        <v>-124.703</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>55013.514274</v>
+        <v>55013.514274000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>15.281532</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.960000</v>
+        <v>1005.96</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.544000</v>
+        <v>-143.54400000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>55024.077075</v>
+        <v>55024.077075000001</v>
       </c>
       <c r="BE15" s="1">
         <v>15.284466</v>
       </c>
       <c r="BF15" s="1">
-        <v>1051.860000</v>
+        <v>1051.8599999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.495000</v>
+        <v>-228.495</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>55034.927156</v>
+        <v>55034.927155999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>15.287480</v>
+        <v>15.28748</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.010000</v>
+        <v>1132.01</v>
       </c>
       <c r="BL15" s="1">
-        <v>-364.147000</v>
+        <v>-364.14699999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>55046.039398</v>
+        <v>55046.039398000001</v>
       </c>
       <c r="BO15" s="1">
         <v>15.290566</v>
       </c>
       <c r="BP15" s="1">
-        <v>1263.790000</v>
+        <v>1263.79</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-573.452000</v>
+        <v>-573.452</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>55056.450426</v>
+        <v>55056.450426000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>15.293458</v>
+        <v>15.293457999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1411.720000</v>
+        <v>1411.72</v>
       </c>
       <c r="BV15" s="1">
-        <v>-797.205000</v>
+        <v>-797.20500000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>55067.349515</v>
+        <v>55067.349515000002</v>
       </c>
       <c r="BY15" s="1">
         <v>15.296486</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1573.210000</v>
+        <v>1573.21</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1030.090000</v>
+        <v>-1030.0899999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>55079.625034</v>
+        <v>55079.625033999997</v>
       </c>
       <c r="CD15" s="1">
         <v>15.299896</v>
       </c>
       <c r="CE15" s="1">
-        <v>1980.220000</v>
+        <v>1980.22</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1574.730000</v>
+        <v>-1574.73</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>54908.780012</v>
+        <v>54908.780012000003</v>
       </c>
       <c r="B16" s="1">
-        <v>15.252439</v>
+        <v>15.252439000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>904.310000</v>
+        <v>904.31</v>
       </c>
       <c r="D16" s="1">
-        <v>-192.486000</v>
+        <v>-192.48599999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>54919.235183</v>
+        <v>54919.235182999997</v>
       </c>
       <c r="G16" s="1">
         <v>15.255343</v>
       </c>
       <c r="H16" s="1">
-        <v>920.236000</v>
+        <v>920.23599999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-163.486000</v>
+        <v>-163.48599999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>54929.727553</v>
+        <v>54929.727552999997</v>
       </c>
       <c r="L16" s="1">
         <v>15.258258</v>
       </c>
       <c r="M16" s="1">
-        <v>942.289000</v>
+        <v>942.28899999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.592000</v>
+        <v>-117.592</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>54940.281958</v>
@@ -4124,163 +4540,163 @@
         <v>15.261189</v>
       </c>
       <c r="R16" s="1">
-        <v>948.792000</v>
+        <v>948.79200000000003</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.633000</v>
+        <v>-102.633</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>54950.835301</v>
+        <v>54950.835300999999</v>
       </c>
       <c r="V16" s="1">
-        <v>15.264121</v>
+        <v>15.264120999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>955.240000</v>
+        <v>955.24</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.265600</v>
+        <v>-89.265600000000006</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>54961.017174</v>
+        <v>54961.017174000001</v>
       </c>
       <c r="AA16" s="1">
         <v>15.266949</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.425000</v>
+        <v>962.42499999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.102100</v>
+        <v>-80.102099999999993</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>54971.179211</v>
+        <v>54971.179211000002</v>
       </c>
       <c r="AF16" s="1">
         <v>15.269772</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.364000</v>
+        <v>967.36400000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.882600</v>
+        <v>-79.882599999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>54981.381420</v>
+        <v>54981.381419999998</v>
       </c>
       <c r="AK16" s="1">
         <v>15.272606</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.381000</v>
+        <v>975.38099999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.832700</v>
+        <v>-87.832700000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>54992.173905</v>
+        <v>54992.173905000003</v>
       </c>
       <c r="AP16" s="1">
         <v>15.275604</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.669000</v>
+        <v>984.66899999999998</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.971000</v>
+        <v>-102.971</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>55002.894927</v>
+        <v>55002.894927000001</v>
       </c>
       <c r="AU16" s="1">
         <v>15.278582</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.198000</v>
+        <v>996.19799999999998</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.697000</v>
+        <v>-124.697</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>55013.874833</v>
+        <v>55013.874833000002</v>
       </c>
       <c r="AZ16" s="1">
         <v>15.281632</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.980000</v>
+        <v>1005.98</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.546000</v>
+        <v>-143.54599999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>55024.801202</v>
+        <v>55024.801202000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>15.284667</v>
+        <v>15.284667000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1051.900000</v>
+        <v>1051.9000000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.488000</v>
+        <v>-228.488</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>55035.676504</v>
+        <v>55035.676504000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>15.287688</v>
+        <v>15.287687999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.020000</v>
+        <v>1132.02</v>
       </c>
       <c r="BL16" s="1">
-        <v>-364.098000</v>
+        <v>-364.09800000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>55046.437686</v>
+        <v>55046.437685999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>15.290677</v>
+        <v>15.290677000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1263.800000</v>
+        <v>1263.8</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-573.439000</v>
+        <v>-573.43899999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>55056.864102</v>
@@ -4289,467 +4705,467 @@
         <v>15.293573</v>
       </c>
       <c r="BU16" s="1">
-        <v>1411.770000</v>
+        <v>1411.77</v>
       </c>
       <c r="BV16" s="1">
-        <v>-797.165000</v>
+        <v>-797.16499999999996</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>55067.805865</v>
+        <v>55067.805865000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>15.296613</v>
+        <v>15.296613000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1573.150000</v>
+        <v>1573.15</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1030.110000</v>
+        <v>-1030.1099999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>55080.475640</v>
+        <v>55080.475639999997</v>
       </c>
       <c r="CD16" s="1">
         <v>15.300132</v>
       </c>
       <c r="CE16" s="1">
-        <v>1981.080000</v>
+        <v>1981.08</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1573.190000</v>
+        <v>-1573.19</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>54909.124731</v>
+        <v>54909.124731000004</v>
       </c>
       <c r="B17" s="1">
         <v>15.252535</v>
       </c>
       <c r="C17" s="1">
-        <v>904.330000</v>
+        <v>904.33</v>
       </c>
       <c r="D17" s="1">
-        <v>-192.643000</v>
+        <v>-192.643</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>54919.580430</v>
+        <v>54919.580430000002</v>
       </c>
       <c r="G17" s="1">
-        <v>15.255439</v>
+        <v>15.255439000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>920.351000</v>
+        <v>920.351</v>
       </c>
       <c r="I17" s="1">
-        <v>-163.832000</v>
+        <v>-163.83199999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>54930.077727</v>
+        <v>54930.077727000004</v>
       </c>
       <c r="L17" s="1">
         <v>15.258355</v>
       </c>
       <c r="M17" s="1">
-        <v>942.277000</v>
+        <v>942.27700000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.620000</v>
+        <v>-117.62</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>54940.695585</v>
+        <v>54940.695585000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>15.261304</v>
+        <v>15.261304000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>948.749000</v>
+        <v>948.74900000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.647000</v>
+        <v>-102.64700000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>54951.108623</v>
       </c>
       <c r="V17" s="1">
-        <v>15.264197</v>
+        <v>15.264196999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>955.262000</v>
+        <v>955.26199999999994</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.292200</v>
+        <v>-89.292199999999994</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>54961.304855</v>
+        <v>54961.304855000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>15.267029</v>
+        <v>15.267029000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.417000</v>
+        <v>962.41700000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.066700</v>
+        <v>-80.066699999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>54971.523930</v>
+        <v>54971.523930000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>15.269868</v>
+        <v>15.269868000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.404000</v>
+        <v>967.404</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.823800</v>
+        <v>-79.823800000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>54981.732105</v>
+        <v>54981.732105000003</v>
       </c>
       <c r="AK17" s="1">
         <v>15.272703</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.401000</v>
+        <v>975.40099999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.856800</v>
+        <v>-87.856800000000007</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>54992.533999</v>
+        <v>54992.533998999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>15.275704</v>
+        <v>15.275703999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.659000</v>
+        <v>984.65899999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.962000</v>
+        <v>-102.962</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>55003.257472</v>
+        <v>55003.257471999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>15.278683</v>
+        <v>15.278682999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.214000</v>
+        <v>996.21400000000006</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.700000</v>
+        <v>-124.7</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>55014.591551</v>
+        <v>55014.591550999998</v>
       </c>
       <c r="AZ17" s="1">
         <v>15.281831</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.980000</v>
+        <v>1005.98</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.530000</v>
+        <v>-143.53</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>55025.189601</v>
+        <v>55025.189600999998</v>
       </c>
       <c r="BE17" s="1">
         <v>15.284775</v>
       </c>
       <c r="BF17" s="1">
-        <v>1051.880000</v>
+        <v>1051.8800000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.504000</v>
+        <v>-228.50399999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>55036.052483</v>
+        <v>55036.052482999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>15.287792</v>
       </c>
       <c r="BK17" s="1">
-        <v>1131.980000</v>
+        <v>1131.98</v>
       </c>
       <c r="BL17" s="1">
-        <v>-364.134000</v>
+        <v>-364.13400000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>55046.857301</v>
+        <v>55046.857300999996</v>
       </c>
       <c r="BO17" s="1">
         <v>15.290794</v>
       </c>
       <c r="BP17" s="1">
-        <v>1263.840000</v>
+        <v>1263.8399999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-573.463000</v>
+        <v>-573.46299999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>55057.613575</v>
+        <v>55057.613575000003</v>
       </c>
       <c r="BT17" s="1">
         <v>15.293782</v>
       </c>
       <c r="BU17" s="1">
-        <v>1411.730000</v>
+        <v>1411.73</v>
       </c>
       <c r="BV17" s="1">
-        <v>-797.167000</v>
+        <v>-797.16700000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>55068.565740</v>
+        <v>55068.565739999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>15.296824</v>
+        <v>15.296824000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1573.260000</v>
+        <v>1573.26</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1030.200000</v>
+        <v>-1030.2</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>55080.701817</v>
+        <v>55080.701817000001</v>
       </c>
       <c r="CD17" s="1">
         <v>15.300195</v>
       </c>
       <c r="CE17" s="1">
-        <v>1981.060000</v>
+        <v>1981.06</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1573.110000</v>
+        <v>-1573.11</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>54909.462010</v>
+        <v>54909.462010000003</v>
       </c>
       <c r="B18" s="1">
         <v>15.252628</v>
       </c>
       <c r="C18" s="1">
-        <v>904.226000</v>
+        <v>904.226</v>
       </c>
       <c r="D18" s="1">
-        <v>-192.719000</v>
+        <v>-192.71899999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>54920.001006</v>
+        <v>54920.001005999999</v>
       </c>
       <c r="G18" s="1">
         <v>15.255556</v>
       </c>
       <c r="H18" s="1">
-        <v>920.750000</v>
+        <v>920.75</v>
       </c>
       <c r="I18" s="1">
-        <v>-162.893000</v>
+        <v>-162.893</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>54930.518176</v>
+        <v>54930.518175999998</v>
       </c>
       <c r="L18" s="1">
-        <v>15.258477</v>
+        <v>15.258476999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>942.487000</v>
+        <v>942.48699999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.600000</v>
+        <v>-117.6</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>54940.989713</v>
+        <v>54940.989713000003</v>
       </c>
       <c r="Q18" s="1">
         <v>15.261386</v>
       </c>
       <c r="R18" s="1">
-        <v>948.786000</v>
+        <v>948.78599999999994</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.653000</v>
+        <v>-102.65300000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>54951.452325</v>
+        <v>54951.452324999998</v>
       </c>
       <c r="V18" s="1">
-        <v>15.264292</v>
+        <v>15.264291999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>955.198000</v>
+        <v>955.19799999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.318900</v>
+        <v>-89.318899999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>54961.658997</v>
+        <v>54961.658996999999</v>
       </c>
       <c r="AA18" s="1">
         <v>15.267127</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.376000</v>
+        <v>962.37599999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.165700</v>
+        <v>-80.165700000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>54971.867195</v>
+        <v>54971.867194999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>15.269963</v>
+        <v>15.269963000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.402000</v>
+        <v>967.40200000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.841700</v>
+        <v>-79.841700000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>54982.081880</v>
+        <v>54982.081879999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>15.272801</v>
+        <v>15.272800999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.388000</v>
+        <v>975.38800000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.825700</v>
+        <v>-87.825699999999998</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>54993.258126</v>
+        <v>54993.258126000001</v>
       </c>
       <c r="AP18" s="1">
         <v>15.275905</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.672000</v>
+        <v>984.67200000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.963000</v>
+        <v>-102.96299999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>55003.990062</v>
+        <v>55003.990061999997</v>
       </c>
       <c r="AU18" s="1">
         <v>15.278886</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.182000</v>
+        <v>996.18200000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.704000</v>
+        <v>-124.70399999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>55014.952143</v>
+        <v>55014.952143000002</v>
       </c>
       <c r="AZ18" s="1">
         <v>15.281931</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.980000</v>
+        <v>1005.98</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.547000</v>
+        <v>-143.547</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>55025.550162</v>
@@ -4758,270 +5174,270 @@
         <v>15.284875</v>
       </c>
       <c r="BF18" s="1">
-        <v>1051.870000</v>
+        <v>1051.8699999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.487000</v>
+        <v>-228.48699999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>55036.428915</v>
+        <v>55036.428914999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>15.287897</v>
+        <v>15.287896999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.020000</v>
+        <v>1132.02</v>
       </c>
       <c r="BL18" s="1">
-        <v>-364.155000</v>
+        <v>-364.15499999999997</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>55047.559425</v>
+        <v>55047.559424999999</v>
       </c>
       <c r="BO18" s="1">
         <v>15.290989</v>
       </c>
       <c r="BP18" s="1">
-        <v>1263.840000</v>
+        <v>1263.8399999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-573.458000</v>
+        <v>-573.45799999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>55057.727126</v>
+        <v>55057.727125999998</v>
       </c>
       <c r="BT18" s="1">
         <v>15.293813</v>
       </c>
       <c r="BU18" s="1">
-        <v>1411.780000</v>
+        <v>1411.78</v>
       </c>
       <c r="BV18" s="1">
-        <v>-797.122000</v>
+        <v>-797.12199999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>55068.706600</v>
+        <v>55068.706599999998</v>
       </c>
       <c r="BY18" s="1">
         <v>15.296863</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1573.180000</v>
+        <v>1573.18</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1030.100000</v>
+        <v>-1030.0999999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>55081.221129</v>
+        <v>55081.221128999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>15.300339</v>
+        <v>15.300338999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1979.980000</v>
+        <v>1979.98</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1574.730000</v>
+        <v>-1574.73</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>54909.883611</v>
+        <v>54909.883610999997</v>
       </c>
       <c r="B19" s="1">
-        <v>15.252745</v>
+        <v>15.252745000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>904.199000</v>
+        <v>904.19899999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-192.792000</v>
+        <v>-192.792</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>54920.272813</v>
+        <v>54920.272813000003</v>
       </c>
       <c r="G19" s="1">
-        <v>15.255631</v>
+        <v>15.255630999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>920.351000</v>
+        <v>920.351</v>
       </c>
       <c r="I19" s="1">
-        <v>-163.365000</v>
+        <v>-163.36500000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>54930.788990</v>
+        <v>54930.788990000001</v>
       </c>
       <c r="L19" s="1">
         <v>15.258552</v>
       </c>
       <c r="M19" s="1">
-        <v>942.295000</v>
+        <v>942.29499999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.658000</v>
+        <v>-117.658</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>54941.336914</v>
       </c>
       <c r="Q19" s="1">
-        <v>15.261482</v>
+        <v>15.261482000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>948.769000</v>
+        <v>948.76900000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.663000</v>
+        <v>-102.663</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>54951.796083</v>
+        <v>54951.796083000001</v>
       </c>
       <c r="V19" s="1">
         <v>15.264388</v>
       </c>
       <c r="W19" s="1">
-        <v>955.206000</v>
+        <v>955.20600000000002</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.256400</v>
+        <v>-89.256399999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>54962.004709</v>
+        <v>54962.004709000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>15.267224</v>
+        <v>15.267224000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.443000</v>
+        <v>962.44299999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.126300</v>
+        <v>-80.126300000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>54972.554152</v>
+        <v>54972.554151999997</v>
       </c>
       <c r="AF19" s="1">
         <v>15.270154</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.396000</v>
+        <v>967.39599999999996</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.836900</v>
+        <v>-79.8369</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>54982.777694</v>
+        <v>54982.777693999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>15.272994</v>
+        <v>15.272994000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.370000</v>
+        <v>975.37</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.851200</v>
+        <v>-87.851200000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>54993.638096</v>
+        <v>54993.638096000002</v>
       </c>
       <c r="AP19" s="1">
         <v>15.276011</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.663000</v>
+        <v>984.66300000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.963000</v>
+        <v>-102.96299999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>55004.350654</v>
+        <v>55004.350654000002</v>
       </c>
       <c r="AU19" s="1">
         <v>15.278986</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.191000</v>
+        <v>996.19100000000003</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.675000</v>
+        <v>-124.675</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>55015.305823</v>
+        <v>55015.305823000002</v>
       </c>
       <c r="AZ19" s="1">
         <v>15.282029</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.940000</v>
+        <v>1005.94</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.540000</v>
+        <v>-143.54</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>55026.221746</v>
+        <v>55026.221746000003</v>
       </c>
       <c r="BE19" s="1">
         <v>15.285062</v>
       </c>
       <c r="BF19" s="1">
-        <v>1051.880000</v>
+        <v>1051.8800000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.473000</v>
+        <v>-228.47300000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>55037.103507</v>
@@ -5030,58 +5446,58 @@
         <v>15.288084</v>
       </c>
       <c r="BK19" s="1">
-        <v>1132.040000</v>
+        <v>1132.04</v>
       </c>
       <c r="BL19" s="1">
-        <v>-364.126000</v>
+        <v>-364.12599999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>55047.688627</v>
+        <v>55047.688627000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>15.291025</v>
+        <v>15.291024999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1263.810000</v>
+        <v>1263.81</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-573.436000</v>
+        <v>-573.43600000000004</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>55058.169062</v>
+        <v>55058.169062000001</v>
       </c>
       <c r="BT19" s="1">
         <v>15.293936</v>
       </c>
       <c r="BU19" s="1">
-        <v>1411.770000</v>
+        <v>1411.77</v>
       </c>
       <c r="BV19" s="1">
-        <v>-797.129000</v>
+        <v>-797.12900000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>55069.127208</v>
+        <v>55069.127207999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>15.296980</v>
+        <v>15.29698</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1573.180000</v>
+        <v>1573.18</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1030.090000</v>
+        <v>-1030.0899999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>55081.738952</v>
@@ -5090,482 +5506,482 @@
         <v>15.300483</v>
       </c>
       <c r="CE19" s="1">
-        <v>1980.470000</v>
+        <v>1980.47</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1573.790000</v>
+        <v>-1573.79</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>54910.162859</v>
+        <v>54910.162858999996</v>
       </c>
       <c r="B20" s="1">
-        <v>15.252823</v>
+        <v>15.252822999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>904.263000</v>
+        <v>904.26300000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>-192.833000</v>
+        <v>-192.833</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>54920.621535</v>
+        <v>54920.621534999998</v>
       </c>
       <c r="G20" s="1">
         <v>15.255728</v>
       </c>
       <c r="H20" s="1">
-        <v>920.836000</v>
+        <v>920.83600000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-163.260000</v>
+        <v>-163.26</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>54931.132719</v>
+        <v>54931.132719000001</v>
       </c>
       <c r="L20" s="1">
-        <v>15.258648</v>
+        <v>15.258648000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>942.274000</v>
+        <v>942.274</v>
       </c>
       <c r="N20" s="1">
-        <v>-117.543000</v>
+        <v>-117.54300000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>54941.686592</v>
+        <v>54941.686591999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>15.261580</v>
+        <v>15.26158</v>
       </c>
       <c r="R20" s="1">
-        <v>948.705000</v>
+        <v>948.70500000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.671000</v>
+        <v>-102.67100000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>54952.482018</v>
+        <v>54952.482018000002</v>
       </c>
       <c r="V20" s="1">
         <v>15.264578</v>
       </c>
       <c r="W20" s="1">
-        <v>955.123000</v>
+        <v>955.12300000000005</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.189900</v>
+        <v>-89.189899999999994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>54962.703076</v>
+        <v>54962.703075999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>15.267418</v>
+        <v>15.267417999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.417000</v>
+        <v>962.41700000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.073600</v>
+        <v>-80.073599999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>54972.896359</v>
+        <v>54972.896358999998</v>
       </c>
       <c r="AF20" s="1">
         <v>15.270249</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.418000</v>
+        <v>967.41800000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.850400</v>
+        <v>-79.850399999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>54983.129817</v>
+        <v>54983.129817000001</v>
       </c>
       <c r="AK20" s="1">
         <v>15.273092</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.401000</v>
+        <v>975.40099999999995</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.848000</v>
+        <v>-87.847999999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>54993.999643</v>
+        <v>54993.999643000003</v>
       </c>
       <c r="AP20" s="1">
         <v>15.276111</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.667000</v>
+        <v>984.66700000000003</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.968000</v>
+        <v>-102.968</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>55005.033646</v>
+        <v>55005.033646000004</v>
       </c>
       <c r="AU20" s="1">
         <v>15.279176</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.199000</v>
+        <v>996.19899999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.718000</v>
+        <v>-124.718</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>55015.975922</v>
+        <v>55015.975921999998</v>
       </c>
       <c r="AZ20" s="1">
         <v>15.282216</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.970000</v>
+        <v>1005.97</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.556000</v>
+        <v>-143.55600000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>55026.661215</v>
       </c>
       <c r="BE20" s="1">
-        <v>15.285184</v>
+        <v>15.285183999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1051.890000</v>
+        <v>1051.8900000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.476000</v>
+        <v>-228.476</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>55037.219042</v>
+        <v>55037.219041999997</v>
       </c>
       <c r="BJ20" s="1">
         <v>15.288116</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.010000</v>
+        <v>1132.01</v>
       </c>
       <c r="BL20" s="1">
-        <v>-364.145000</v>
+        <v>-364.14499999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>55048.099813</v>
+        <v>55048.099813000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>15.291139</v>
+        <v>15.291138999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1263.790000</v>
+        <v>1263.79</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-573.428000</v>
+        <v>-573.428</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>55058.579285</v>
       </c>
       <c r="BT20" s="1">
-        <v>15.294050</v>
+        <v>15.29405</v>
       </c>
       <c r="BU20" s="1">
-        <v>1411.730000</v>
+        <v>1411.73</v>
       </c>
       <c r="BV20" s="1">
-        <v>-797.079000</v>
+        <v>-797.07899999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>55069.551751</v>
+        <v>55069.551750999999</v>
       </c>
       <c r="BY20" s="1">
         <v>15.297098</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1573.170000</v>
+        <v>1573.17</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1030.050000</v>
+        <v>-1030.05</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>55082.290502</v>
+        <v>55082.290502000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>15.300636</v>
+        <v>15.300636000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1981.260000</v>
+        <v>1981.26</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1573.230000</v>
+        <v>-1573.23</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>54910.506089</v>
+        <v>54910.506089000002</v>
       </c>
       <c r="B21" s="1">
-        <v>15.252918</v>
+        <v>15.252917999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>904.264000</v>
+        <v>904.26400000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-192.746000</v>
+        <v>-192.74600000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>54920.966219</v>
+        <v>54920.966219000002</v>
       </c>
       <c r="G21" s="1">
         <v>15.255824</v>
       </c>
       <c r="H21" s="1">
-        <v>920.635000</v>
+        <v>920.63499999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-163.434000</v>
+        <v>-163.434</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>54931.482930</v>
+        <v>54931.482929999998</v>
       </c>
       <c r="L21" s="1">
-        <v>15.258745</v>
+        <v>15.258744999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>942.246000</v>
+        <v>942.24599999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-117.417000</v>
+        <v>-117.417</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>54942.383002</v>
+        <v>54942.383002000002</v>
       </c>
       <c r="Q21" s="1">
         <v>15.261773</v>
       </c>
       <c r="R21" s="1">
-        <v>948.764000</v>
+        <v>948.76400000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.680000</v>
+        <v>-102.68</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>54952.824754</v>
+        <v>54952.824754000001</v>
       </c>
       <c r="V21" s="1">
-        <v>15.264674</v>
+        <v>15.264673999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>955.213000</v>
+        <v>955.21299999999997</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.245000</v>
+        <v>-89.245000000000005</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>54963.051268</v>
+        <v>54963.051268000003</v>
       </c>
       <c r="AA21" s="1">
         <v>15.267514</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.418000</v>
+        <v>962.41800000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.114200</v>
+        <v>-80.114199999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>54973.240582</v>
+        <v>54973.240581999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>15.270345</v>
+        <v>15.270345000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.420000</v>
+        <v>967.42</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.832000</v>
+        <v>-79.831999999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>54983.476025</v>
+        <v>54983.476025000004</v>
       </c>
       <c r="AK21" s="1">
-        <v>15.273188</v>
+        <v>15.273187999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.376000</v>
+        <v>975.37599999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.856800</v>
+        <v>-87.856800000000007</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>54994.665274</v>
+        <v>54994.665273999999</v>
       </c>
       <c r="AP21" s="1">
         <v>15.276296</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.667000</v>
+        <v>984.66700000000003</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.962000</v>
+        <v>-102.962</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>55005.445858</v>
+        <v>55005.445857999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>15.279291</v>
+        <v>15.279291000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.189000</v>
+        <v>996.18899999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.704000</v>
+        <v>-124.70399999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>55016.417853</v>
+        <v>55016.417852999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>15.282338</v>
+        <v>15.282337999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.970000</v>
+        <v>1005.97</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.536000</v>
+        <v>-143.536</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>55027.021791</v>
+        <v>55027.021790999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>15.285284</v>
+        <v>15.285284000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1051.870000</v>
+        <v>1051.8699999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.464000</v>
+        <v>-228.464</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>55037.591537</v>
       </c>
       <c r="BJ21" s="1">
-        <v>15.288220</v>
+        <v>15.288220000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.000000</v>
+        <v>1132</v>
       </c>
       <c r="BL21" s="1">
-        <v>-364.131000</v>
+        <v>-364.13099999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>55048.496612</v>
+        <v>55048.496612000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>15.291249</v>
+        <v>15.291249000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1263.810000</v>
+        <v>1263.81</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-573.435000</v>
+        <v>-573.43499999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>55059.009286</v>
@@ -5574,240 +5990,240 @@
         <v>15.294169</v>
       </c>
       <c r="BU21" s="1">
-        <v>1411.790000</v>
+        <v>1411.79</v>
       </c>
       <c r="BV21" s="1">
-        <v>-797.027000</v>
+        <v>-797.02700000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>55069.969878</v>
+        <v>55069.969878000004</v>
       </c>
       <c r="BY21" s="1">
         <v>15.297214</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1573.220000</v>
+        <v>1573.22</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1029.950000</v>
+        <v>-1029.95</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>55082.819734</v>
+        <v>55082.819733999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>15.300783</v>
+        <v>15.300782999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1980.450000</v>
+        <v>1980.45</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1574.430000</v>
+        <v>-1574.43</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>54910.847337</v>
+        <v>54910.847336999999</v>
       </c>
       <c r="B22" s="1">
-        <v>15.253013</v>
+        <v>15.253012999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>904.205000</v>
+        <v>904.20500000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-192.765000</v>
+        <v>-192.76499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>54921.653938</v>
+        <v>54921.653938000003</v>
       </c>
       <c r="G22" s="1">
         <v>15.256015</v>
       </c>
       <c r="H22" s="1">
-        <v>920.365000</v>
+        <v>920.36500000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-163.478000</v>
+        <v>-163.47800000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>54932.243756</v>
+        <v>54932.243756000003</v>
       </c>
       <c r="L22" s="1">
-        <v>15.258957</v>
+        <v>15.258957000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>942.288000</v>
+        <v>942.28800000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-117.568000</v>
+        <v>-117.568</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>54942.730703</v>
+        <v>54942.730703000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>15.261870</v>
+        <v>15.26187</v>
       </c>
       <c r="R22" s="1">
-        <v>948.754000</v>
+        <v>948.75400000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.632000</v>
+        <v>-102.63200000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>54953.170010</v>
+        <v>54953.170010000002</v>
       </c>
       <c r="V22" s="1">
-        <v>15.264769</v>
+        <v>15.264768999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>955.166000</v>
+        <v>955.16600000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.285800</v>
+        <v>-89.285799999999995</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>54963.400236</v>
+        <v>54963.400236000001</v>
       </c>
       <c r="AA22" s="1">
         <v>15.267611</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.508000</v>
+        <v>962.50800000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.157400</v>
+        <v>-80.157399999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>54973.886374</v>
+        <v>54973.886374000002</v>
       </c>
       <c r="AF22" s="1">
         <v>15.270524</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.393000</v>
+        <v>967.39300000000003</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.889400</v>
+        <v>-79.889399999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>54984.127768</v>
+        <v>54984.127767999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>15.273369</v>
+        <v>15.273369000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.394000</v>
+        <v>975.39400000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.849200</v>
+        <v>-87.849199999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>54995.077946</v>
+        <v>54995.077945999998</v>
       </c>
       <c r="AP22" s="1">
         <v>15.276411</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.657000</v>
+        <v>984.65700000000004</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.968000</v>
+        <v>-102.968</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>55005.809387</v>
+        <v>55005.809387000001</v>
       </c>
       <c r="AU22" s="1">
         <v>15.279391</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.213000</v>
+        <v>996.21299999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.706000</v>
+        <v>-124.706</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>55016.778790</v>
+        <v>55016.778789999997</v>
       </c>
       <c r="AZ22" s="1">
         <v>15.282439</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.960000</v>
+        <v>1005.96</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.533000</v>
+        <v>-143.53299999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>55027.383375</v>
+        <v>55027.383374999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>15.285384</v>
+        <v>15.285384000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1051.880000</v>
+        <v>1051.8800000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.469000</v>
+        <v>-228.46899999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>55037.960561</v>
       </c>
       <c r="BJ22" s="1">
-        <v>15.288322</v>
+        <v>15.288322000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1131.980000</v>
+        <v>1131.98</v>
       </c>
       <c r="BL22" s="1">
-        <v>-364.122000</v>
+        <v>-364.12200000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>55048.918179</v>
@@ -5816,225 +6232,225 @@
         <v>15.291366</v>
       </c>
       <c r="BP22" s="1">
-        <v>1263.810000</v>
+        <v>1263.81</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-573.449000</v>
+        <v>-573.44899999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>55059.437828</v>
+        <v>55059.437828000002</v>
       </c>
       <c r="BT22" s="1">
         <v>15.294288</v>
       </c>
       <c r="BU22" s="1">
-        <v>1411.870000</v>
+        <v>1411.87</v>
       </c>
       <c r="BV22" s="1">
-        <v>-797.034000</v>
+        <v>-797.03399999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>55070.414825</v>
       </c>
       <c r="BY22" s="1">
-        <v>15.297337</v>
+        <v>15.297337000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1573.280000</v>
+        <v>1573.28</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1029.930000</v>
+        <v>-1029.93</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>55083.337595</v>
+        <v>55083.337594999997</v>
       </c>
       <c r="CD22" s="1">
         <v>15.300927</v>
       </c>
       <c r="CE22" s="1">
-        <v>1982.300000</v>
+        <v>1982.3</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1574.960000</v>
+        <v>-1574.96</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>54911.529833</v>
+        <v>54911.529833000001</v>
       </c>
       <c r="B23" s="1">
-        <v>15.253203</v>
+        <v>15.253202999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>904.115000</v>
+        <v>904.11500000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-192.649000</v>
+        <v>-192.649</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>54921.997899</v>
+        <v>54921.997899000002</v>
       </c>
       <c r="G23" s="1">
-        <v>15.256111</v>
+        <v>15.256111000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>921.049000</v>
+        <v>921.04899999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-163.689000</v>
+        <v>-163.68899999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>54932.526476</v>
+        <v>54932.526475999999</v>
       </c>
       <c r="L23" s="1">
-        <v>15.259035</v>
+        <v>15.259035000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>942.372000</v>
+        <v>942.37199999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.625000</v>
+        <v>-117.625</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>54943.080886</v>
+        <v>54943.080886000003</v>
       </c>
       <c r="Q23" s="1">
         <v>15.261967</v>
       </c>
       <c r="R23" s="1">
-        <v>948.763000</v>
+        <v>948.76300000000003</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.626000</v>
+        <v>-102.626</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>54953.816752</v>
+        <v>54953.816751999999</v>
       </c>
       <c r="V23" s="1">
         <v>15.264949</v>
       </c>
       <c r="W23" s="1">
-        <v>955.110000</v>
+        <v>955.11</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.209200</v>
+        <v>-89.209199999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>54964.056162</v>
+        <v>54964.056162000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>15.267793</v>
+        <v>15.267792999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.452000</v>
+        <v>962.452</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.096900</v>
+        <v>-80.096900000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>54974.268294</v>
+        <v>54974.268294000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>15.270630</v>
+        <v>15.270630000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.400000</v>
+        <v>967.4</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.838200</v>
+        <v>-79.838200000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>54984.520632</v>
       </c>
       <c r="AK23" s="1">
-        <v>15.273478</v>
+        <v>15.273478000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.391000</v>
+        <v>975.39099999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.854000</v>
+        <v>-87.853999999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>54995.461353</v>
+        <v>54995.461352999999</v>
       </c>
       <c r="AP23" s="1">
         <v>15.276517</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.669000</v>
+        <v>984.66899999999998</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.999000</v>
+        <v>-102.999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>55006.174471</v>
+        <v>55006.174470999998</v>
       </c>
       <c r="AU23" s="1">
         <v>15.279493</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.203000</v>
+        <v>996.20299999999997</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.690000</v>
+        <v>-124.69</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>55017.133581</v>
+        <v>55017.133581000002</v>
       </c>
       <c r="AZ23" s="1">
         <v>15.282537</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.960000</v>
+        <v>1005.96</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.515000</v>
+        <v>-143.51499999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>55027.812414</v>
@@ -6043,73 +6459,73 @@
         <v>15.285503</v>
       </c>
       <c r="BF23" s="1">
-        <v>1051.870000</v>
+        <v>1051.8699999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.479000</v>
+        <v>-228.47900000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>55038.374720</v>
+        <v>55038.37472</v>
       </c>
       <c r="BJ23" s="1">
         <v>15.288437</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.020000</v>
+        <v>1132.02</v>
       </c>
       <c r="BL23" s="1">
-        <v>-364.119000</v>
+        <v>-364.11900000000003</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>55049.314018</v>
+        <v>55049.314017999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>15.291476</v>
+        <v>15.291475999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1263.830000</v>
+        <v>1263.83</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-573.415000</v>
+        <v>-573.41499999999996</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>55059.849043</v>
+        <v>55059.849043000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>15.294403</v>
+        <v>15.294403000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1411.780000</v>
+        <v>1411.78</v>
       </c>
       <c r="BV23" s="1">
-        <v>-796.913000</v>
+        <v>-796.91300000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>55070.835895</v>
+        <v>55070.835894999997</v>
       </c>
       <c r="BY23" s="1">
         <v>15.297454</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1573.230000</v>
+        <v>1573.23</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1029.980000</v>
+        <v>-1029.98</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>55083.881212</v>
@@ -6118,362 +6534,362 @@
         <v>15.301078</v>
       </c>
       <c r="CE23" s="1">
-        <v>1980.280000</v>
+        <v>1980.28</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1573.370000</v>
+        <v>-1573.37</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>54911.874056</v>
+        <v>54911.874056000001</v>
       </c>
       <c r="B24" s="1">
-        <v>15.253298</v>
+        <v>15.253297999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>904.453000</v>
+        <v>904.45299999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>-192.488000</v>
+        <v>-192.488</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>54922.343145</v>
+        <v>54922.343144999999</v>
       </c>
       <c r="G24" s="1">
-        <v>15.256206</v>
+        <v>15.256206000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>920.750000</v>
+        <v>920.75</v>
       </c>
       <c r="I24" s="1">
-        <v>-163.800000</v>
+        <v>-163.80000000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>54933.179211</v>
+        <v>54933.179211000002</v>
       </c>
       <c r="L24" s="1">
         <v>15.259216</v>
       </c>
       <c r="M24" s="1">
-        <v>942.322000</v>
+        <v>942.322</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.574000</v>
+        <v>-117.574</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>54943.732126</v>
+        <v>54943.732126000003</v>
       </c>
       <c r="Q24" s="1">
         <v>15.262148</v>
       </c>
       <c r="R24" s="1">
-        <v>948.761000</v>
+        <v>948.76099999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.667000</v>
+        <v>-102.667</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>54954.200994</v>
+        <v>54954.200993999999</v>
       </c>
       <c r="V24" s="1">
         <v>15.265056</v>
       </c>
       <c r="W24" s="1">
-        <v>955.157000</v>
+        <v>955.15700000000004</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.346500</v>
+        <v>-89.346500000000006</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>54964.446514</v>
+        <v>54964.446514000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>15.267902</v>
+        <v>15.267901999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.418000</v>
+        <v>962.41800000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.084800</v>
+        <v>-80.084800000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>54974.613014</v>
+        <v>54974.613014000002</v>
       </c>
       <c r="AF24" s="1">
         <v>15.270726</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.402000</v>
+        <v>967.40200000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.840400</v>
+        <v>-79.840400000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>54984.867304</v>
+        <v>54984.867303999999</v>
       </c>
       <c r="AK24" s="1">
         <v>15.273574</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.379000</v>
+        <v>975.37900000000002</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.832400</v>
+        <v>-87.832400000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>54995.819962</v>
+        <v>54995.819962000001</v>
       </c>
       <c r="AP24" s="1">
         <v>15.276617</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.669000</v>
+        <v>984.66899999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.981000</v>
+        <v>-102.98099999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>55006.613898</v>
+        <v>55006.613898000003</v>
       </c>
       <c r="AU24" s="1">
         <v>15.279615</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.209000</v>
+        <v>996.20899999999995</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.677000</v>
+        <v>-124.67700000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>55017.551708</v>
+        <v>55017.551707999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>15.282653</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.970000</v>
+        <v>1005.97</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.540000</v>
+        <v>-143.54</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>55028.107039</v>
+        <v>55028.107039000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>15.285585</v>
+        <v>15.285584999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1051.870000</v>
+        <v>1051.8699999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.461000</v>
+        <v>-228.46100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>55038.737792</v>
       </c>
       <c r="BJ24" s="1">
-        <v>15.288538</v>
+        <v>15.288538000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1131.970000</v>
+        <v>1131.97</v>
       </c>
       <c r="BL24" s="1">
-        <v>-364.091000</v>
+        <v>-364.09100000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>55049.732146</v>
+        <v>55049.732146000002</v>
       </c>
       <c r="BO24" s="1">
         <v>15.291592</v>
       </c>
       <c r="BP24" s="1">
-        <v>1263.780000</v>
+        <v>1263.78</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-573.438000</v>
+        <v>-573.43799999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>55060.280035</v>
+        <v>55060.280035000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>15.294522</v>
+        <v>15.294522000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1411.770000</v>
+        <v>1411.77</v>
       </c>
       <c r="BV24" s="1">
-        <v>-796.856000</v>
+        <v>-796.85599999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>55071.261958</v>
+        <v>55071.261958000003</v>
       </c>
       <c r="BY24" s="1">
         <v>15.297573</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1573.200000</v>
+        <v>1573.2</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1029.960000</v>
+        <v>-1029.96</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>55084.419827</v>
+        <v>55084.419826999998</v>
       </c>
       <c r="CD24" s="1">
         <v>15.301228</v>
       </c>
       <c r="CE24" s="1">
-        <v>1981.250000</v>
+        <v>1981.25</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1575.050000</v>
+        <v>-1575.05</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>54912.217287</v>
+        <v>54912.217286999999</v>
       </c>
       <c r="B25" s="1">
         <v>15.253394</v>
       </c>
       <c r="C25" s="1">
-        <v>904.331000</v>
+        <v>904.33100000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-192.613000</v>
+        <v>-192.613</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>54922.992874</v>
+        <v>54922.992874000003</v>
       </c>
       <c r="G25" s="1">
         <v>15.256387</v>
       </c>
       <c r="H25" s="1">
-        <v>920.629000</v>
+        <v>920.62900000000002</v>
       </c>
       <c r="I25" s="1">
-        <v>-163.084000</v>
+        <v>-163.084</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>54933.562154</v>
+        <v>54933.562153999999</v>
       </c>
       <c r="L25" s="1">
         <v>15.259323</v>
       </c>
       <c r="M25" s="1">
-        <v>942.316000</v>
+        <v>942.31600000000003</v>
       </c>
       <c r="N25" s="1">
-        <v>-117.577000</v>
+        <v>-117.577</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>54944.127406</v>
       </c>
       <c r="Q25" s="1">
-        <v>15.262258</v>
+        <v>15.262257999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>948.730000</v>
+        <v>948.73</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.690000</v>
+        <v>-102.69</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>54954.539919</v>
+        <v>54954.539919000003</v>
       </c>
       <c r="V25" s="1">
-        <v>15.265150</v>
+        <v>15.26515</v>
       </c>
       <c r="W25" s="1">
-        <v>955.235000</v>
+        <v>955.23500000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.295100</v>
+        <v>-89.295100000000005</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>54964.796689</v>
+        <v>54964.796689000003</v>
       </c>
       <c r="AA25" s="1">
         <v>15.267999</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.372000</v>
+        <v>962.37199999999996</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.065600</v>
+        <v>-80.065600000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>54974.961205</v>
@@ -6482,422 +6898,423 @@
         <v>15.270823</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.429000</v>
+        <v>967.42899999999997</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.871100</v>
+        <v>-79.871099999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>54985.429766</v>
+        <v>54985.429766000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>15.273730</v>
+        <v>15.27373</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.388000</v>
+        <v>975.38800000000003</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.857400</v>
+        <v>-87.857399999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>54996.241105</v>
+        <v>54996.241105000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>15.276734</v>
+        <v>15.276733999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.665000</v>
+        <v>984.66499999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.964000</v>
+        <v>-102.964</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>55006.903101</v>
+        <v>55006.903101000004</v>
       </c>
       <c r="AU25" s="1">
         <v>15.279695</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.212000</v>
+        <v>996.21199999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.677000</v>
+        <v>-124.67700000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>55017.851756</v>
+        <v>55017.851755999996</v>
       </c>
       <c r="AZ25" s="1">
-        <v>15.282737</v>
+        <v>15.282736999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.970000</v>
+        <v>1005.97</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.536000</v>
+        <v>-143.536</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>55028.468125</v>
+        <v>55028.468124999999</v>
       </c>
       <c r="BE25" s="1">
         <v>15.285686</v>
       </c>
       <c r="BF25" s="1">
-        <v>1051.880000</v>
+        <v>1051.8800000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.480000</v>
+        <v>-228.48</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>55039.101892</v>
+        <v>55039.101891999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>15.288639</v>
       </c>
       <c r="BK25" s="1">
-        <v>1131.980000</v>
+        <v>1131.98</v>
       </c>
       <c r="BL25" s="1">
-        <v>-364.128000</v>
+        <v>-364.12799999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>55050.130401</v>
+        <v>55050.130401000002</v>
       </c>
       <c r="BO25" s="1">
         <v>15.291703</v>
       </c>
       <c r="BP25" s="1">
-        <v>1263.820000</v>
+        <v>1263.82</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-573.440000</v>
+        <v>-573.44000000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>55060.708187</v>
+        <v>55060.708186999997</v>
       </c>
       <c r="BT25" s="1">
         <v>15.294641</v>
       </c>
       <c r="BU25" s="1">
-        <v>1411.670000</v>
+        <v>1411.67</v>
       </c>
       <c r="BV25" s="1">
-        <v>-796.827000</v>
+        <v>-796.827</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>55071.710372</v>
+        <v>55071.710372000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>15.297697</v>
+        <v>15.297696999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1573.220000</v>
+        <v>1573.22</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1030.040000</v>
+        <v>-1030.04</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>55084.959476</v>
+        <v>55084.959476000004</v>
       </c>
       <c r="CD25" s="1">
         <v>15.301378</v>
       </c>
       <c r="CE25" s="1">
-        <v>1981.630000</v>
+        <v>1981.63</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1573.340000</v>
+        <v>-1573.34</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>54912.877959</v>
+        <v>54912.877958999998</v>
       </c>
       <c r="B26" s="1">
         <v>15.253577</v>
       </c>
       <c r="C26" s="1">
-        <v>904.230000</v>
+        <v>904.23</v>
       </c>
       <c r="D26" s="1">
-        <v>-192.647000</v>
+        <v>-192.64699999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>54923.376812</v>
+        <v>54923.376812000002</v>
       </c>
       <c r="G26" s="1">
         <v>15.256494</v>
       </c>
       <c r="H26" s="1">
-        <v>920.631000</v>
+        <v>920.63099999999997</v>
       </c>
       <c r="I26" s="1">
-        <v>-162.997000</v>
+        <v>-162.99700000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>54933.908330</v>
+        <v>54933.908329999998</v>
       </c>
       <c r="L26" s="1">
-        <v>15.259419</v>
+        <v>15.259418999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>942.189000</v>
+        <v>942.18899999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.541000</v>
+        <v>-117.541</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>54944.476590</v>
+        <v>54944.476589999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>15.262355</v>
+        <v>15.262354999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>948.757000</v>
+        <v>948.75699999999995</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.672000</v>
+        <v>-102.672</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>54954.884142</v>
+        <v>54954.884142000003</v>
       </c>
       <c r="V26" s="1">
-        <v>15.265246</v>
+        <v>15.265245999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>955.207000</v>
+        <v>955.20699999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.275000</v>
+        <v>-89.275000000000006</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>54965.145873</v>
+        <v>54965.145873000001</v>
       </c>
       <c r="AA26" s="1">
         <v>15.268096</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.393000</v>
+        <v>962.39300000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.138300</v>
+        <v>-80.138300000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>54975.376853</v>
+        <v>54975.376853000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>15.270938</v>
+        <v>15.270937999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.394000</v>
+        <v>967.39400000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.865100</v>
+        <v>-79.865099999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>54985.945640</v>
+        <v>54985.945639999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>15.273874</v>
+        <v>15.273873999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.393000</v>
+        <v>975.39300000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.836000</v>
+        <v>-87.835999999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>54996.542172</v>
+        <v>54996.542172000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>15.276817</v>
+        <v>15.276816999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.659000</v>
+        <v>984.65899999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.000000</v>
+        <v>-103</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>55007.269145</v>
+        <v>55007.269144999998</v>
       </c>
       <c r="AU26" s="1">
         <v>15.279797</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.212000</v>
+        <v>996.21199999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.694000</v>
+        <v>-124.694</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>55018.209904</v>
+        <v>55018.209904000003</v>
       </c>
       <c r="AZ26" s="1">
         <v>15.282836</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.970000</v>
+        <v>1005.97</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.544000</v>
+        <v>-143.54400000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>55028.828719</v>
+        <v>55028.828718999997</v>
       </c>
       <c r="BE26" s="1">
         <v>15.285786</v>
       </c>
       <c r="BF26" s="1">
-        <v>1051.900000</v>
+        <v>1051.9000000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.478000</v>
+        <v>-228.47800000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>55039.781911</v>
+        <v>55039.781910999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>15.288828</v>
+        <v>15.288828000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.010000</v>
+        <v>1132.01</v>
       </c>
       <c r="BL26" s="1">
-        <v>-364.158000</v>
+        <v>-364.15800000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>55050.551008</v>
+        <v>55050.551008000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>15.291820</v>
+        <v>15.29182</v>
       </c>
       <c r="BP26" s="1">
-        <v>1263.840000</v>
+        <v>1263.8399999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-573.455000</v>
+        <v>-573.45500000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>55061.118311</v>
+        <v>55061.118310999998</v>
       </c>
       <c r="BT26" s="1">
         <v>15.294755</v>
       </c>
       <c r="BU26" s="1">
-        <v>1411.790000</v>
+        <v>1411.79</v>
       </c>
       <c r="BV26" s="1">
-        <v>-796.749000</v>
+        <v>-796.74900000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>55072.142356</v>
+        <v>55072.142355999997</v>
       </c>
       <c r="BY26" s="1">
         <v>15.297817</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1573.180000</v>
+        <v>1573.18</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1029.960000</v>
+        <v>-1029.96</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>55085.499123</v>
+        <v>55085.499123000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>15.301528</v>
+        <v>15.301527999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1980.340000</v>
+        <v>1980.34</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1574.610000</v>
+        <v>-1574.61</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>